--- a/2021TeamData.xlsx
+++ b/2021TeamData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96d8f57e66b541f6/Documents/GitHub/baseball model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{C37077C2-F86C-4288-969D-77E7C15B1C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1D25E2-7532-4943-B58E-BB3EC408630B}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{C37077C2-F86C-4288-969D-77E7C15B1C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E19DF68-DC95-4B37-B83A-D9CBCACE870A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{50981C88-7418-40E3-8E89-3E8FF3925537}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{50981C88-7418-40E3-8E89-3E8FF3925537}"/>
   </bookViews>
   <sheets>
     <sheet name="batting" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">batting!$A$1:$X$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FA Tracker'!$A$2:$I$216</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pythagorean!$A$2:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FA Tracker'!$A$2:$I$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Pythagorean!$A$2:$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="312">
   <si>
     <t>GP</t>
   </si>
@@ -685,9 +685,6 @@
     <t>Carlos Martinez</t>
   </si>
   <si>
-    <t>J.D. Martinez</t>
-  </si>
-  <si>
     <t>Nick Martinez</t>
   </si>
   <si>
@@ -949,9 +946,6 @@
     <t>Jose Urena</t>
   </si>
   <si>
-    <t>Christian Vazquez</t>
-  </si>
-  <si>
     <t>Vince Velasquez</t>
   </si>
   <si>
@@ -980,6 +974,9 @@
   </si>
   <si>
     <t>Mike Zunino</t>
+  </si>
+  <si>
+    <t>Run Est 2022</t>
   </si>
 </sst>
 </file>
@@ -4046,10 +4043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A7FD9F-8846-4DCD-95C8-9E2761157187}">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4058,17 +4055,18 @@
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -4082,1267 +4080,1279 @@
         <v>59</v>
       </c>
       <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>66</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>67</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>863</v>
+        <v>705</v>
       </c>
       <c r="C3">
-        <v>-7.1</v>
+        <v>2.9</v>
       </c>
       <c r="D3">
-        <v>658</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E32" si="0">0.5+(B3-D3) * $L$3</f>
-        <v>0.62876050000000006</v>
-      </c>
-      <c r="F3" s="11">
-        <f t="shared" ref="F3:F32" si="1">+E3*162</f>
-        <v>101.85920100000001</v>
-      </c>
-      <c r="G3">
+        <v>839</v>
+      </c>
+      <c r="F3">
+        <f>0.5+(B3-D3) * $M$3</f>
+        <v>0.4158346</v>
+      </c>
+      <c r="G3" s="11">
+        <f>+F3*162</f>
+        <v>67.365205200000005</v>
+      </c>
+      <c r="H3">
+        <v>83</v>
+      </c>
+      <c r="I3" s="11">
+        <f>+G3-H3</f>
+        <v>-15.634794799999995</v>
+      </c>
+      <c r="J3" s="10">
+        <f>0.5+$M$3*(B3+C3-D3)</f>
+        <v>0.41765608999999998</v>
+      </c>
+      <c r="K3" s="11">
+        <f>+J3*162</f>
+        <v>67.66028657999999</v>
+      </c>
+      <c r="L3" s="11">
+        <f>+K3-H3</f>
+        <v>-15.33971342000001</v>
+      </c>
+      <c r="M3">
+        <v>6.2810000000000003E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>697</v>
+      </c>
+      <c r="C4">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="D4">
+        <v>748</v>
+      </c>
+      <c r="F4">
+        <f>0.5+(B4-D4) * $M$3</f>
+        <v>0.46796690000000002</v>
+      </c>
+      <c r="G4" s="11">
+        <f>+F4*162</f>
+        <v>75.810637800000009</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4" s="11">
+        <f>+G4-H4</f>
+        <v>-14.189362199999991</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J32" si="0">0.5+$M$3*(B4+C4-D4)</f>
+        <v>0.46156027999999999</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K32" si="1">+J4*162</f>
+        <v>74.772765359999994</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L32" si="2">+K4-H4</f>
+        <v>-15.227234640000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>711</v>
+      </c>
+      <c r="C5">
+        <v>44.5</v>
+      </c>
+      <c r="D5">
+        <v>669</v>
+      </c>
+      <c r="E5">
+        <v>722</v>
+      </c>
+      <c r="F5">
+        <f>0.5+(B5-D5) * $M$3</f>
+        <v>0.52638019999999996</v>
+      </c>
+      <c r="G5" s="11">
+        <f>+F5*162</f>
+        <v>85.273592399999998</v>
+      </c>
+      <c r="H5">
+        <v>92</v>
+      </c>
+      <c r="I5" s="11">
+        <f>+G5-H5</f>
+        <v>-6.7264076000000017</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.55433065000000004</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="1"/>
+        <v>89.801565300000007</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="2"/>
+        <v>-2.1984346999999929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>706</v>
+      </c>
+      <c r="C6">
+        <v>0.7</v>
+      </c>
+      <c r="D6">
+        <v>672</v>
+      </c>
+      <c r="F6">
+        <f>0.5+(B6-D6) * $M$3</f>
+        <v>0.52135540000000002</v>
+      </c>
+      <c r="G6" s="11">
+        <f>+F6*162</f>
+        <v>84.459574799999999</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6" s="11">
+        <f>+G6-H6</f>
+        <v>-5.5404252000000014</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.52179507000000003</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="1"/>
+        <v>84.530801340000011</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="2"/>
+        <v>-5.4691986599999893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>804</v>
+      </c>
+      <c r="C7">
+        <v>32.5</v>
+      </c>
+      <c r="D7">
+        <v>594</v>
+      </c>
+      <c r="F7">
+        <f>0.5+(B7-D7) * $M$3</f>
+        <v>0.63190100000000005</v>
+      </c>
+      <c r="G7" s="11">
+        <f>+F7*162</f>
+        <v>102.36796200000001</v>
+      </c>
+      <c r="H7">
+        <v>107</v>
+      </c>
+      <c r="I7" s="11">
+        <f>+G7-H7</f>
+        <v>-4.6320379999999943</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.65231424999999998</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="1"/>
+        <v>105.6749085</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.3250914999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>723</v>
+      </c>
+      <c r="C8">
+        <v>-37</v>
+      </c>
+      <c r="D8">
+        <v>804</v>
+      </c>
+      <c r="F8">
+        <f>0.5+(B8-D8) * $M$3</f>
+        <v>0.44912390000000002</v>
+      </c>
+      <c r="G8" s="11">
+        <f>+F8*162</f>
+        <v>72.75807180000001</v>
+      </c>
+      <c r="H8">
+        <v>77</v>
+      </c>
+      <c r="I8" s="11">
+        <f>+G8-H8</f>
+        <v>-4.2419281999999896</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.42588419999999999</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="1"/>
+        <v>68.993240400000005</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="2"/>
+        <v>-8.0067595999999952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>705</v>
+      </c>
+      <c r="C9">
+        <v>-11.5</v>
+      </c>
+      <c r="D9">
+        <v>839</v>
+      </c>
+      <c r="F9">
+        <f>0.5+(B9-D9) * $M$3</f>
+        <v>0.4158346</v>
+      </c>
+      <c r="G9" s="11">
+        <f>+F9*162</f>
+        <v>67.365205200000005</v>
+      </c>
+      <c r="H9">
+        <v>71</v>
+      </c>
+      <c r="I9" s="11">
+        <f>+G9-H9</f>
+        <v>-3.6347947999999946</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.40861144999999999</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="1"/>
+        <v>66.195054900000002</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="2"/>
+        <v>-4.8049450999999976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>686</v>
+      </c>
+      <c r="C10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D10">
+        <v>788</v>
+      </c>
+      <c r="F10">
+        <f>0.5+(B10-D10) * $M$3</f>
+        <v>0.43593379999999998</v>
+      </c>
+      <c r="G10" s="11">
+        <f>+F10*162</f>
+        <v>70.621275600000004</v>
+      </c>
+      <c r="H10">
+        <v>74</v>
+      </c>
+      <c r="I10" s="11">
+        <f>+G10-H10</f>
+        <v>-3.3787243999999959</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.43882305999999999</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="1"/>
+        <v>71.089335719999994</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="2"/>
+        <v>-2.910664280000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>829</v>
+      </c>
+      <c r="C11">
+        <v>-10.6</v>
+      </c>
+      <c r="D11">
+        <v>749</v>
+      </c>
+      <c r="E11">
+        <v>729</v>
+      </c>
+      <c r="F11">
+        <f>0.5+(B11-D11) * $M$3</f>
+        <v>0.55024799999999996</v>
+      </c>
+      <c r="G11" s="11">
+        <f>+F11*162</f>
+        <v>89.140175999999997</v>
+      </c>
+      <c r="H11">
+        <v>92</v>
+      </c>
+      <c r="I11" s="11">
+        <f>+G11-H11</f>
+        <v>-2.8598240000000033</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.54359013999999994</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="1"/>
+        <v>88.061602679999993</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="2"/>
+        <v>-3.9383973200000071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>609</v>
+      </c>
+      <c r="C12">
+        <v>24.2</v>
+      </c>
+      <c r="D12">
+        <v>833</v>
+      </c>
+      <c r="F12">
+        <f>0.5+(B12-D12) * $M$3</f>
+        <v>0.3593056</v>
+      </c>
+      <c r="G12" s="11">
+        <f>+F12*162</f>
+        <v>58.207507200000002</v>
+      </c>
+      <c r="H12">
+        <v>61</v>
+      </c>
+      <c r="I12" s="11">
+        <f>+G12-H12</f>
+        <v>-2.792492799999998</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.37450561999999998</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="1"/>
+        <v>60.669910439999995</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.33008956000000467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>729</v>
+      </c>
+      <c r="C13">
+        <v>22.2</v>
+      </c>
+      <c r="D13">
+        <v>834</v>
+      </c>
+      <c r="F13">
+        <f>0.5+(B13-D13) * $M$3</f>
+        <v>0.43404949999999998</v>
+      </c>
+      <c r="G13" s="11">
+        <f>+F13*162</f>
+        <v>70.316018999999997</v>
+      </c>
+      <c r="H13">
+        <v>73</v>
+      </c>
+      <c r="I13" s="11">
+        <f>+G13-H13</f>
+        <v>-2.6839810000000028</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.44799332000000003</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="1"/>
+        <v>72.574917839999998</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.42508216000000232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>738</v>
+      </c>
+      <c r="C14">
+        <v>-20.6</v>
+      </c>
+      <c r="D14">
+        <v>623</v>
+      </c>
+      <c r="F14">
+        <f>0.5+(B14-D14) * $M$3</f>
+        <v>0.5722315</v>
+      </c>
+      <c r="G14" s="11">
+        <f>+F14*162</f>
+        <v>92.701503000000002</v>
+      </c>
+      <c r="H14">
         <v>95</v>
       </c>
-      <c r="H3" s="11">
-        <f t="shared" ref="H3:H32" si="2">+F3-G3</f>
-        <v>6.859201000000013</v>
-      </c>
-      <c r="I3" s="10">
-        <f>0.5+$L$3*(B3+C3-D3)</f>
-        <v>0.62430098999999994</v>
-      </c>
-      <c r="J3" s="11">
-        <f>+I3*162</f>
-        <v>101.13676037999998</v>
-      </c>
-      <c r="K3" s="11">
-        <f>+J3-G3</f>
-        <v>6.1367603799999841</v>
-      </c>
-      <c r="L3">
-        <v>6.2810000000000003E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>857</v>
-      </c>
-      <c r="C4">
-        <v>-57.2</v>
-      </c>
-      <c r="D4">
-        <v>651</v>
-      </c>
-      <c r="E4">
+      <c r="I14" s="11">
+        <f>+G14-H14</f>
+        <v>-2.2984969999999976</v>
+      </c>
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>0.62938859999999996</v>
-      </c>
-      <c r="F4" s="11">
+        <v>0.55929264000000001</v>
+      </c>
+      <c r="K14" s="11">
         <f t="shared" si="1"/>
-        <v>101.96095319999999</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" s="11">
+        <v>90.605407679999999</v>
+      </c>
+      <c r="L14" s="11">
         <f t="shared" si="2"/>
-        <v>1.9609531999999916</v>
-      </c>
-      <c r="I4" s="10">
-        <f t="shared" ref="I4:I32" si="3">0.5+$L$3*(B4+C4-D4)</f>
-        <v>0.59346127999999998</v>
-      </c>
-      <c r="J4" s="11">
-        <f t="shared" ref="J4:J32" si="4">+I4*162</f>
-        <v>96.14072736</v>
-      </c>
-      <c r="K4" s="11">
-        <f t="shared" ref="K4:K32" si="5">+J4-G4</f>
-        <v>-3.8592726400000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>846</v>
-      </c>
-      <c r="C5">
-        <v>-0.6</v>
-      </c>
-      <c r="D5">
-        <v>663</v>
-      </c>
-      <c r="E5">
+        <v>-4.394592320000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>734</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>745</v>
+      </c>
+      <c r="F15">
+        <f>0.5+(B15-D15) * $M$3</f>
+        <v>0.4930909</v>
+      </c>
+      <c r="G15" s="11">
+        <f>+F15*162</f>
+        <v>79.880725799999993</v>
+      </c>
+      <c r="H15">
+        <v>82</v>
+      </c>
+      <c r="I15" s="11">
+        <f>+G15-H15</f>
+        <v>-2.1192742000000067</v>
+      </c>
+      <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>0.61494230000000005</v>
-      </c>
-      <c r="F5" s="11">
+        <v>0.49560330000000002</v>
+      </c>
+      <c r="K15" s="11">
         <f t="shared" si="1"/>
-        <v>99.620652600000014</v>
-      </c>
-      <c r="G5">
-        <v>91</v>
-      </c>
-      <c r="H5" s="11">
+        <v>80.287734600000007</v>
+      </c>
+      <c r="L15" s="11">
         <f t="shared" si="2"/>
-        <v>8.6206526000000139</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" si="3"/>
-        <v>0.61456544000000002</v>
-      </c>
-      <c r="J5" s="11">
-        <f t="shared" si="4"/>
-        <v>99.55960128000001</v>
-      </c>
-      <c r="K5" s="11">
-        <f t="shared" si="5"/>
-        <v>8.5596012800000096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>830</v>
-      </c>
-      <c r="C6">
-        <v>-22.6</v>
-      </c>
-      <c r="D6">
-        <v>561</v>
-      </c>
-      <c r="E6">
+        <v>-1.7122653999999926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>697</v>
+      </c>
+      <c r="C16">
+        <v>-26</v>
+      </c>
+      <c r="D16">
+        <v>756</v>
+      </c>
+      <c r="F16">
+        <f>0.5+(B16-D16) * $M$3</f>
+        <v>0.46294210000000002</v>
+      </c>
+      <c r="G16" s="11">
+        <f>+F16*162</f>
+        <v>74.99662020000001</v>
+      </c>
+      <c r="H16">
+        <v>77</v>
+      </c>
+      <c r="I16" s="11">
+        <f>+G16-H16</f>
+        <v>-2.0033797999999905</v>
+      </c>
+      <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>0.66895890000000002</v>
-      </c>
-      <c r="F6" s="11">
+        <v>0.44661149999999999</v>
+      </c>
+      <c r="K16" s="11">
         <f t="shared" si="1"/>
-        <v>108.37134180000001</v>
-      </c>
-      <c r="G6">
-        <v>106</v>
-      </c>
-      <c r="H6" s="11">
+        <v>72.351062999999996</v>
+      </c>
+      <c r="L16" s="11">
         <f t="shared" si="2"/>
-        <v>2.3713418000000104</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="3"/>
-        <v>0.65476383999999999</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="4"/>
-        <v>106.07174207999999</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" si="5"/>
-        <v>7.1742079999992825E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>829</v>
-      </c>
-      <c r="C7">
-        <v>-10.6</v>
-      </c>
-      <c r="D7">
-        <v>749</v>
-      </c>
-      <c r="E7">
+        <v>-4.6489370000000036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>659</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>956</v>
+      </c>
+      <c r="F17">
+        <f>0.5+(B17-D17) * $M$3</f>
+        <v>0.31345429999999996</v>
+      </c>
+      <c r="G17" s="11">
+        <f>+F17*162</f>
+        <v>50.779596599999991</v>
+      </c>
+      <c r="H17">
+        <v>52</v>
+      </c>
+      <c r="I17" s="11">
+        <f>+G17-H17</f>
+        <v>-1.2204034000000092</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>0.55024799999999996</v>
-      </c>
-      <c r="F7" s="11">
+        <v>0.31910719999999998</v>
+      </c>
+      <c r="K17" s="11">
         <f t="shared" si="1"/>
-        <v>89.140175999999997</v>
-      </c>
-      <c r="G7">
-        <v>92</v>
-      </c>
-      <c r="H7" s="11">
+        <v>51.695366399999997</v>
+      </c>
+      <c r="L17" s="11">
         <f t="shared" si="2"/>
-        <v>-2.8598240000000033</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="3"/>
-        <v>0.54359013999999994</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="4"/>
-        <v>88.061602679999993</v>
-      </c>
-      <c r="K7" s="11">
-        <f t="shared" si="5"/>
-        <v>-3.9383973200000071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>804</v>
-      </c>
-      <c r="C8">
-        <v>32.5</v>
-      </c>
-      <c r="D8">
-        <v>594</v>
-      </c>
-      <c r="E8">
+        <v>-0.3046336000000025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>717</v>
+      </c>
+      <c r="C18">
+        <v>51.6</v>
+      </c>
+      <c r="D18">
+        <v>727</v>
+      </c>
+      <c r="F18">
+        <f>0.5+(B18-D18) * $M$3</f>
+        <v>0.49371900000000002</v>
+      </c>
+      <c r="G18" s="11">
+        <f>+F18*162</f>
+        <v>79.982478</v>
+      </c>
+      <c r="H18">
+        <v>80</v>
+      </c>
+      <c r="I18" s="11">
+        <f>+G18-H18</f>
+        <v>-1.7521999999999593E-2</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>0.63190100000000005</v>
-      </c>
-      <c r="F8" s="11">
+        <v>0.52612895999999998</v>
+      </c>
+      <c r="K18" s="11">
         <f t="shared" si="1"/>
-        <v>102.36796200000001</v>
-      </c>
-      <c r="G8">
-        <v>107</v>
-      </c>
-      <c r="H8" s="11">
+        <v>85.232891519999995</v>
+      </c>
+      <c r="L18" s="11">
         <f t="shared" si="2"/>
-        <v>-4.6320379999999943</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="3"/>
-        <v>0.65231424999999998</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="4"/>
-        <v>105.6749085</v>
-      </c>
-      <c r="K8" s="11">
-        <f t="shared" si="5"/>
-        <v>-1.3250914999999992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>796</v>
-      </c>
-      <c r="C9">
-        <v>-7.2</v>
-      </c>
-      <c r="D9">
-        <v>636</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.60049600000000003</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="1"/>
-        <v>97.280352000000008</v>
-      </c>
-      <c r="G9">
-        <v>93</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="2"/>
-        <v>4.2803520000000077</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="3"/>
-        <v>0.59597367999999995</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" si="4"/>
-        <v>96.547736159999985</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" si="5"/>
-        <v>3.5477361599999853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>790</v>
-      </c>
-      <c r="C10">
-        <v>-5.3</v>
-      </c>
-      <c r="D10">
-        <v>656</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.58416540000000006</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="1"/>
-        <v>94.634794800000009</v>
-      </c>
-      <c r="G10">
-        <v>88</v>
-      </c>
-      <c r="H10" s="11">
-        <f t="shared" si="2"/>
-        <v>6.6347948000000088</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" si="3"/>
-        <v>0.58083647000000005</v>
-      </c>
-      <c r="J10" s="11">
-        <f t="shared" si="4"/>
-        <v>94.095508140000007</v>
-      </c>
-      <c r="K10" s="11">
-        <f t="shared" si="5"/>
-        <v>6.0955081400000068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+        <v>5.2328915199999955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B11">
+      <c r="B19">
         <v>743</v>
       </c>
-      <c r="C11">
+      <c r="C19">
         <v>-22</v>
       </c>
-      <c r="D11">
+      <c r="D19">
         <v>687</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="F19">
+        <f>0.5+(B19-D19) * $M$3</f>
         <v>0.53517360000000003</v>
       </c>
-      <c r="F11" s="11">
-        <f t="shared" si="1"/>
+      <c r="G19" s="11">
+        <f>+F19*162</f>
         <v>86.698123199999998</v>
       </c>
-      <c r="G11">
+      <c r="H19">
         <v>86</v>
       </c>
-      <c r="H11" s="11">
-        <f t="shared" si="2"/>
+      <c r="I19" s="11">
+        <f>+G19-H19</f>
         <v>0.69812319999999772</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="3"/>
-        <v>0.52135540000000002</v>
-      </c>
-      <c r="J11" s="11">
-        <f t="shared" si="4"/>
-        <v>84.459574799999999</v>
-      </c>
-      <c r="K11" s="11">
-        <f t="shared" si="5"/>
-        <v>-1.5404252000000014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>739</v>
-      </c>
-      <c r="C12">
-        <v>-16</v>
-      </c>
-      <c r="D12">
-        <v>796</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.46419830000000001</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="1"/>
-        <v>75.200124599999995</v>
-      </c>
-      <c r="G12">
-        <v>74</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="2"/>
-        <v>1.2001245999999952</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="3"/>
-        <v>0.45414870000000002</v>
-      </c>
-      <c r="J12" s="11">
-        <f t="shared" si="4"/>
-        <v>73.572089399999996</v>
-      </c>
-      <c r="K12" s="11">
-        <f t="shared" si="5"/>
-        <v>-0.42791060000000414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>738</v>
-      </c>
-      <c r="C13">
-        <v>-20.6</v>
-      </c>
-      <c r="D13">
-        <v>623</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.5722315</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" si="1"/>
-        <v>92.701503000000002</v>
-      </c>
-      <c r="G13">
-        <v>95</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="2"/>
-        <v>-2.2984969999999976</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="3"/>
-        <v>0.55929264000000001</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="4"/>
-        <v>90.605407679999999</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" si="5"/>
-        <v>-4.394592320000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>734</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>745</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.4930909</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" si="1"/>
-        <v>79.880725799999993</v>
-      </c>
-      <c r="G14">
-        <v>82</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="2"/>
-        <v>-2.1192742000000067</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="3"/>
-        <v>0.49560330000000002</v>
-      </c>
-      <c r="J14" s="11">
-        <f t="shared" si="4"/>
-        <v>80.287734600000007</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="5"/>
-        <v>-1.7122653999999926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>729</v>
-      </c>
-      <c r="C15">
-        <v>14.7</v>
-      </c>
-      <c r="D15">
-        <v>708</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.51319009999999998</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="1"/>
-        <v>83.136796199999992</v>
-      </c>
-      <c r="G15">
-        <v>79</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="2"/>
-        <v>4.136796199999992</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="3"/>
-        <v>0.52242317000000005</v>
-      </c>
-      <c r="J15" s="11">
-        <f t="shared" si="4"/>
-        <v>84.632553540000004</v>
-      </c>
-      <c r="K15" s="11">
-        <f t="shared" si="5"/>
-        <v>5.6325535400000035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>729</v>
-      </c>
-      <c r="C16">
-        <v>22.2</v>
-      </c>
-      <c r="D16">
-        <v>834</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.43404949999999998</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" si="1"/>
-        <v>70.316018999999997</v>
-      </c>
-      <c r="G16">
-        <v>73</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="2"/>
-        <v>-2.6839810000000028</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="3"/>
-        <v>0.44799332000000003</v>
-      </c>
-      <c r="J16" s="11">
-        <f t="shared" si="4"/>
-        <v>72.574917839999998</v>
-      </c>
-      <c r="K16" s="11">
-        <f t="shared" si="5"/>
-        <v>-0.42508216000000232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>724</v>
-      </c>
-      <c r="C17">
-        <v>48.8</v>
-      </c>
-      <c r="D17">
-        <v>820</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.43970239999999999</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="1"/>
-        <v>71.231788800000004</v>
-      </c>
-      <c r="G17">
-        <v>65</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="2"/>
-        <v>6.2317888000000039</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="3"/>
-        <v>0.47035368</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="4"/>
-        <v>76.197296159999993</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" si="5"/>
-        <v>11.197296159999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>724</v>
-      </c>
-      <c r="C18">
-        <v>-22.4</v>
-      </c>
-      <c r="D18">
-        <v>820</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0.43970239999999999</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="1"/>
-        <v>71.231788800000004</v>
-      </c>
-      <c r="G18">
-        <v>67</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="2"/>
-        <v>4.2317888000000039</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="3"/>
-        <v>0.42563296</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" si="4"/>
-        <v>68.952539520000002</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" si="5"/>
-        <v>1.952539520000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>723</v>
-      </c>
-      <c r="C19">
-        <v>-37</v>
-      </c>
-      <c r="D19">
-        <v>804</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0.44912390000000002</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="1"/>
-        <v>72.75807180000001</v>
-      </c>
-      <c r="G19">
-        <v>77</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="2"/>
-        <v>-4.2419281999999896</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="3"/>
-        <v>0.42588419999999999</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="4"/>
-        <v>68.993240400000005</v>
-      </c>
-      <c r="K19" s="11">
-        <f t="shared" si="5"/>
-        <v>-8.0067595999999952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>717</v>
-      </c>
-      <c r="C20">
-        <v>51.6</v>
-      </c>
-      <c r="D20">
-        <v>727</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0.49371900000000002</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="1"/>
-        <v>79.982478</v>
-      </c>
-      <c r="G20">
-        <v>80</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="2"/>
-        <v>-1.7521999999999593E-2</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="3"/>
-        <v>0.52612895999999998</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="4"/>
-        <v>85.232891519999995</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" si="5"/>
-        <v>5.2328915199999955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21">
-        <v>711</v>
-      </c>
-      <c r="C21">
-        <v>44.5</v>
-      </c>
-      <c r="D21">
-        <v>669</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0.52638019999999996</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="1"/>
-        <v>85.273592399999998</v>
-      </c>
-      <c r="G21">
-        <v>92</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="2"/>
-        <v>-6.7264076000000017</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="3"/>
-        <v>0.55433065000000004</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="4"/>
-        <v>89.801565300000007</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="5"/>
-        <v>-2.1984346999999929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>706</v>
-      </c>
-      <c r="C22">
-        <v>0.7</v>
-      </c>
-      <c r="D22">
-        <v>672</v>
-      </c>
-      <c r="E22">
+      <c r="J19" s="10">
         <f t="shared" si="0"/>
         <v>0.52135540000000002</v>
       </c>
-      <c r="F22" s="11">
+      <c r="K19" s="11">
         <f t="shared" si="1"/>
         <v>84.459574799999999</v>
       </c>
-      <c r="G22">
-        <v>90</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="L19" s="11">
         <f t="shared" si="2"/>
-        <v>-5.5404252000000014</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="3"/>
-        <v>0.52179507000000003</v>
-      </c>
-      <c r="J22" s="11">
-        <f t="shared" si="4"/>
-        <v>84.530801340000011</v>
+        <v>-1.5404252000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>636</v>
+      </c>
+      <c r="C20">
+        <v>7.3</v>
+      </c>
+      <c r="D20">
+        <v>668</v>
+      </c>
+      <c r="F20">
+        <f>0.5+(B20-D20) * $M$3</f>
+        <v>0.47990080000000002</v>
+      </c>
+      <c r="G20" s="11">
+        <f>+F20*162</f>
+        <v>77.743929600000001</v>
+      </c>
+      <c r="H20">
+        <v>77</v>
+      </c>
+      <c r="I20" s="11">
+        <f>+G20-H20</f>
+        <v>0.7439296000000013</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="0"/>
+        <v>0.48448592999999995</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="1"/>
+        <v>78.486720659999989</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4867206599999889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>739</v>
+      </c>
+      <c r="C21">
+        <v>-16</v>
+      </c>
+      <c r="D21">
+        <v>796</v>
+      </c>
+      <c r="F21">
+        <f>0.5+(B21-D21) * $M$3</f>
+        <v>0.46419830000000001</v>
+      </c>
+      <c r="G21" s="11">
+        <f>+F21*162</f>
+        <v>75.200124599999995</v>
+      </c>
+      <c r="H21">
+        <v>74</v>
+      </c>
+      <c r="I21" s="11">
+        <f>+G21-H21</f>
+        <v>1.2001245999999952</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.45414870000000002</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="1"/>
+        <v>73.572089399999996</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.42791060000000414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>625</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>815</v>
+      </c>
+      <c r="F22">
+        <f>0.5+(B22-D22) * $M$3</f>
+        <v>0.38066100000000003</v>
+      </c>
+      <c r="G22" s="11">
+        <f>+F22*162</f>
+        <v>61.667082000000008</v>
+      </c>
+      <c r="H22">
+        <v>60</v>
+      </c>
+      <c r="I22" s="11">
+        <f>+G22-H22</f>
+        <v>1.6670820000000077</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>0.38072381</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="5"/>
-        <v>-5.4691986599999893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>61.677257220000001</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6772572200000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>705</v>
+        <v>857</v>
       </c>
       <c r="C23">
-        <v>-11.5</v>
+        <v>-57.2</v>
       </c>
       <c r="D23">
-        <v>839</v>
-      </c>
-      <c r="E23">
+        <v>651</v>
+      </c>
+      <c r="F23">
+        <f>0.5+(B23-D23) * $M$3</f>
+        <v>0.62938859999999996</v>
+      </c>
+      <c r="G23" s="11">
+        <f>+F23*162</f>
+        <v>101.96095319999999</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23" s="11">
+        <f>+G23-H23</f>
+        <v>1.9609531999999916</v>
+      </c>
+      <c r="J23" s="10">
         <f t="shared" si="0"/>
-        <v>0.4158346</v>
-      </c>
-      <c r="F23" s="11">
+        <v>0.59346127999999998</v>
+      </c>
+      <c r="K23" s="11">
         <f t="shared" si="1"/>
-        <v>67.365205200000005</v>
-      </c>
-      <c r="G23">
-        <v>71</v>
-      </c>
-      <c r="H23" s="11">
+        <v>96.14072736</v>
+      </c>
+      <c r="L23" s="11">
         <f t="shared" si="2"/>
-        <v>-3.6347947999999946</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="3"/>
-        <v>0.40861144999999999</v>
-      </c>
-      <c r="J23" s="11">
-        <f t="shared" si="4"/>
-        <v>66.195054900000002</v>
-      </c>
-      <c r="K23" s="11">
-        <f t="shared" si="5"/>
-        <v>-4.8049450999999976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-3.8592726400000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>705</v>
+        <v>830</v>
       </c>
       <c r="C24">
-        <v>2.9</v>
+        <v>-22.6</v>
       </c>
       <c r="D24">
-        <v>839</v>
-      </c>
-      <c r="E24">
+        <v>561</v>
+      </c>
+      <c r="F24">
+        <f>0.5+(B24-D24) * $M$3</f>
+        <v>0.66895890000000002</v>
+      </c>
+      <c r="G24" s="11">
+        <f>+F24*162</f>
+        <v>108.37134180000001</v>
+      </c>
+      <c r="H24">
+        <v>106</v>
+      </c>
+      <c r="I24" s="11">
+        <f>+G24-H24</f>
+        <v>2.3713418000000104</v>
+      </c>
+      <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>0.4158346</v>
-      </c>
-      <c r="F24" s="11">
+        <v>0.65476383999999999</v>
+      </c>
+      <c r="K24" s="11">
         <f t="shared" si="1"/>
-        <v>67.365205200000005</v>
-      </c>
-      <c r="G24">
-        <v>83</v>
-      </c>
-      <c r="H24" s="11">
+        <v>106.07174207999999</v>
+      </c>
+      <c r="L24" s="11">
         <f t="shared" si="2"/>
-        <v>-15.634794799999995</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="3"/>
-        <v>0.41765608999999998</v>
-      </c>
-      <c r="J24" s="11">
-        <f t="shared" si="4"/>
-        <v>67.66028657999999</v>
-      </c>
-      <c r="K24" s="11">
-        <f t="shared" si="5"/>
-        <v>-15.33971342000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.1742079999992825E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="C25">
-        <v>-26</v>
+        <v>14.7</v>
       </c>
       <c r="D25">
-        <v>756</v>
-      </c>
-      <c r="E25">
+        <v>708</v>
+      </c>
+      <c r="F25">
+        <f>0.5+(B25-D25) * $M$3</f>
+        <v>0.51319009999999998</v>
+      </c>
+      <c r="G25" s="11">
+        <f>+F25*162</f>
+        <v>83.136796199999992</v>
+      </c>
+      <c r="H25">
+        <v>79</v>
+      </c>
+      <c r="I25" s="11">
+        <f>+G25-H25</f>
+        <v>4.136796199999992</v>
+      </c>
+      <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>0.46294210000000002</v>
-      </c>
-      <c r="F25" s="11">
+        <v>0.52242317000000005</v>
+      </c>
+      <c r="K25" s="11">
         <f t="shared" si="1"/>
-        <v>74.99662020000001</v>
-      </c>
-      <c r="G25">
-        <v>77</v>
-      </c>
-      <c r="H25" s="11">
+        <v>84.632553540000004</v>
+      </c>
+      <c r="L25" s="11">
         <f t="shared" si="2"/>
-        <v>-2.0033797999999905</v>
-      </c>
-      <c r="I25" s="10">
-        <f t="shared" si="3"/>
-        <v>0.44661149999999999</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="4"/>
-        <v>72.351062999999996</v>
-      </c>
-      <c r="K25" s="11">
-        <f t="shared" si="5"/>
-        <v>-4.6489370000000036</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.6325535400000035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="C26">
-        <v>-10.199999999999999</v>
+        <v>-22.4</v>
       </c>
       <c r="D26">
-        <v>748</v>
-      </c>
-      <c r="E26">
+        <v>820</v>
+      </c>
+      <c r="F26">
+        <f>0.5+(B26-D26) * $M$3</f>
+        <v>0.43970239999999999</v>
+      </c>
+      <c r="G26" s="11">
+        <f>+F26*162</f>
+        <v>71.231788800000004</v>
+      </c>
+      <c r="H26">
+        <v>67</v>
+      </c>
+      <c r="I26" s="11">
+        <f>+G26-H26</f>
+        <v>4.2317888000000039</v>
+      </c>
+      <c r="J26" s="10">
         <f t="shared" si="0"/>
-        <v>0.46796690000000002</v>
-      </c>
-      <c r="F26" s="11">
+        <v>0.42563296</v>
+      </c>
+      <c r="K26" s="11">
         <f t="shared" si="1"/>
-        <v>75.810637800000009</v>
-      </c>
-      <c r="G26">
-        <v>90</v>
-      </c>
-      <c r="H26" s="11">
+        <v>68.952539520000002</v>
+      </c>
+      <c r="L26" s="11">
         <f t="shared" si="2"/>
-        <v>-14.189362199999991</v>
-      </c>
-      <c r="I26" s="10">
-        <f t="shared" si="3"/>
-        <v>0.46156027999999999</v>
-      </c>
-      <c r="J26" s="11">
-        <f t="shared" si="4"/>
-        <v>74.772765359999994</v>
-      </c>
-      <c r="K26" s="11">
-        <f t="shared" si="5"/>
-        <v>-15.227234640000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.952539520000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>686</v>
+        <v>796</v>
       </c>
       <c r="C27">
-        <v>4.5999999999999996</v>
+        <v>-7.2</v>
       </c>
       <c r="D27">
-        <v>788</v>
-      </c>
-      <c r="E27">
+        <v>636</v>
+      </c>
+      <c r="F27">
+        <f>0.5+(B27-D27) * $M$3</f>
+        <v>0.60049600000000003</v>
+      </c>
+      <c r="G27" s="11">
+        <f>+F27*162</f>
+        <v>97.280352000000008</v>
+      </c>
+      <c r="H27">
+        <v>93</v>
+      </c>
+      <c r="I27" s="11">
+        <f>+G27-H27</f>
+        <v>4.2803520000000077</v>
+      </c>
+      <c r="J27" s="10">
         <f t="shared" si="0"/>
-        <v>0.43593379999999998</v>
-      </c>
-      <c r="F27" s="11">
+        <v>0.59597367999999995</v>
+      </c>
+      <c r="K27" s="11">
         <f t="shared" si="1"/>
-        <v>70.621275600000004</v>
-      </c>
-      <c r="G27">
-        <v>74</v>
-      </c>
-      <c r="H27" s="11">
+        <v>96.547736159999985</v>
+      </c>
+      <c r="L27" s="11">
         <f t="shared" si="2"/>
-        <v>-3.3787243999999959</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.43882305999999999</v>
-      </c>
-      <c r="J27" s="11">
-        <f t="shared" si="4"/>
-        <v>71.089335719999994</v>
-      </c>
-      <c r="K27" s="11">
-        <f t="shared" si="5"/>
-        <v>-2.910664280000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.5477361599999853</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>724</v>
+      </c>
+      <c r="C28">
+        <v>48.8</v>
+      </c>
+      <c r="D28">
+        <v>820</v>
+      </c>
+      <c r="F28">
+        <f>0.5+(B28-D28) * $M$3</f>
+        <v>0.43970239999999999</v>
+      </c>
+      <c r="G28" s="11">
+        <f>+F28*162</f>
+        <v>71.231788800000004</v>
+      </c>
+      <c r="H28">
+        <v>65</v>
+      </c>
+      <c r="I28" s="11">
+        <f>+G28-H28</f>
+        <v>6.2317888000000039</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="0"/>
+        <v>0.47035368</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="1"/>
+        <v>76.197296159999993</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="2"/>
+        <v>11.197296159999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>790</v>
+      </c>
+      <c r="C29">
+        <v>-5.3</v>
+      </c>
+      <c r="D29">
+        <v>656</v>
+      </c>
+      <c r="F29">
+        <f>0.5+(B29-D29) * $M$3</f>
+        <v>0.58416540000000006</v>
+      </c>
+      <c r="G29" s="11">
+        <f>+F29*162</f>
+        <v>94.634794800000009</v>
+      </c>
+      <c r="H29">
+        <v>88</v>
+      </c>
+      <c r="I29" s="11">
+        <f>+G29-H29</f>
+        <v>6.6347948000000088</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.58083647000000005</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="1"/>
+        <v>94.095508140000007</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="2"/>
+        <v>6.0955081400000068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>863</v>
+      </c>
+      <c r="C30">
+        <v>-7.1</v>
+      </c>
+      <c r="D30">
+        <v>658</v>
+      </c>
+      <c r="F30">
+        <f>0.5+(B30-D30) * $M$3</f>
+        <v>0.62876050000000006</v>
+      </c>
+      <c r="G30" s="11">
+        <f>+F30*162</f>
+        <v>101.85920100000001</v>
+      </c>
+      <c r="H30">
+        <v>95</v>
+      </c>
+      <c r="I30" s="11">
+        <f>+G30-H30</f>
+        <v>6.859201000000013</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="0"/>
+        <v>0.62430098999999994</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="1"/>
+        <v>101.13676037999998</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="2"/>
+        <v>6.1367603799999841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B28">
+      <c r="B31">
         <v>679</v>
       </c>
-      <c r="C28">
+      <c r="C31">
         <v>29.2</v>
       </c>
-      <c r="D28">
+      <c r="D31">
         <v>893</v>
       </c>
-      <c r="E28">
+      <c r="F31">
+        <f>0.5+(B31-D31) * $M$3</f>
+        <v>0.36558659999999998</v>
+      </c>
+      <c r="G31" s="11">
+        <f>+F31*162</f>
+        <v>59.225029199999994</v>
+      </c>
+      <c r="H31">
+        <v>52</v>
+      </c>
+      <c r="I31" s="11">
+        <f>+G31-H31</f>
+        <v>7.2250291999999945</v>
+      </c>
+      <c r="J31" s="10">
         <f t="shared" si="0"/>
-        <v>0.36558659999999998</v>
-      </c>
-      <c r="F28" s="11">
+        <v>0.38392712000000001</v>
+      </c>
+      <c r="K31" s="11">
         <f t="shared" si="1"/>
-        <v>59.225029199999994</v>
-      </c>
-      <c r="G28">
-        <v>52</v>
-      </c>
-      <c r="H28" s="11">
+        <v>62.196193440000002</v>
+      </c>
+      <c r="L31" s="11">
         <f t="shared" si="2"/>
-        <v>7.2250291999999945</v>
-      </c>
-      <c r="I28" s="10">
-        <f t="shared" si="3"/>
-        <v>0.38392712000000001</v>
-      </c>
-      <c r="J28" s="11">
-        <f t="shared" si="4"/>
-        <v>62.196193440000002</v>
-      </c>
-      <c r="K28" s="11">
-        <f t="shared" si="5"/>
         <v>10.196193440000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>659</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>956</v>
-      </c>
-      <c r="E29">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>846</v>
+      </c>
+      <c r="C32">
+        <v>-0.6</v>
+      </c>
+      <c r="D32">
+        <v>663</v>
+      </c>
+      <c r="E32">
+        <v>708</v>
+      </c>
+      <c r="F32">
+        <f>0.5+(B32-D32) * $M$3</f>
+        <v>0.61494230000000005</v>
+      </c>
+      <c r="G32" s="11">
+        <f>+F32*162</f>
+        <v>99.620652600000014</v>
+      </c>
+      <c r="H32">
+        <v>91</v>
+      </c>
+      <c r="I32" s="11">
+        <f>+G32-H32</f>
+        <v>8.6206526000000139</v>
+      </c>
+      <c r="J32" s="10">
         <f t="shared" si="0"/>
-        <v>0.31345429999999996</v>
-      </c>
-      <c r="F29" s="11">
+        <v>0.61456544000000002</v>
+      </c>
+      <c r="K32" s="11">
         <f t="shared" si="1"/>
-        <v>50.779596599999991</v>
-      </c>
-      <c r="G29">
-        <v>52</v>
-      </c>
-      <c r="H29" s="11">
+        <v>99.55960128000001</v>
+      </c>
+      <c r="L32" s="11">
         <f t="shared" si="2"/>
-        <v>-1.2204034000000092</v>
-      </c>
-      <c r="I29" s="10">
-        <f t="shared" si="3"/>
-        <v>0.31910719999999998</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" si="4"/>
-        <v>51.695366399999997</v>
-      </c>
-      <c r="K29" s="11">
-        <f t="shared" si="5"/>
-        <v>-0.3046336000000025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>636</v>
-      </c>
-      <c r="C30">
-        <v>7.3</v>
-      </c>
-      <c r="D30">
-        <v>668</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0.47990080000000002</v>
-      </c>
-      <c r="F30" s="11">
-        <f t="shared" si="1"/>
-        <v>77.743929600000001</v>
-      </c>
-      <c r="G30">
-        <v>77</v>
-      </c>
-      <c r="H30" s="11">
-        <f t="shared" si="2"/>
-        <v>0.7439296000000013</v>
-      </c>
-      <c r="I30" s="10">
-        <f t="shared" si="3"/>
-        <v>0.48448592999999995</v>
-      </c>
-      <c r="J30" s="11">
-        <f t="shared" si="4"/>
-        <v>78.486720659999989</v>
-      </c>
-      <c r="K30" s="11">
-        <f t="shared" si="5"/>
-        <v>1.4867206599999889</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
-        <v>625</v>
-      </c>
-      <c r="C31">
-        <v>0.1</v>
-      </c>
-      <c r="D31">
-        <v>815</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0.38066100000000003</v>
-      </c>
-      <c r="F31" s="11">
-        <f t="shared" si="1"/>
-        <v>61.667082000000008</v>
-      </c>
-      <c r="G31">
-        <v>60</v>
-      </c>
-      <c r="H31" s="11">
-        <f t="shared" si="2"/>
-        <v>1.6670820000000077</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" si="3"/>
-        <v>0.38072381</v>
-      </c>
-      <c r="J31" s="11">
-        <f t="shared" si="4"/>
-        <v>61.677257220000001</v>
-      </c>
-      <c r="K31" s="11">
-        <f t="shared" si="5"/>
-        <v>1.6772572200000013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>609</v>
-      </c>
-      <c r="C32">
-        <v>24.2</v>
-      </c>
-      <c r="D32">
-        <v>833</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0.3593056</v>
-      </c>
-      <c r="F32" s="11">
-        <f t="shared" si="1"/>
-        <v>58.207507200000002</v>
-      </c>
-      <c r="G32">
-        <v>61</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="2"/>
-        <v>-2.792492799999998</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" si="3"/>
-        <v>0.37450561999999998</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" si="4"/>
-        <v>60.669910439999995</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" si="5"/>
-        <v>-0.33008956000000467</v>
+        <v>8.5596012800000096</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H32" xr:uid="{50A7FD9F-8846-4DCD-95C8-9E2761157187}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H32">
-      <sortCondition descending="1" ref="B2:B32"/>
+  <autoFilter ref="A2:I32" xr:uid="{50A7FD9F-8846-4DCD-95C8-9E2761157187}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I32">
+      <sortCondition ref="I2:I32"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5352,11 +5362,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD05EC5-E6D6-4A9F-BCDC-1928974AB8A6}">
-  <dimension ref="A2:I216"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:I214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5397,7 +5406,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>127</v>
       </c>
@@ -5424,9 +5433,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>95</v>
@@ -5453,7 +5462,7 @@
         <v>325000000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>152</v>
       </c>
@@ -5480,9 +5489,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>95</v>
@@ -5507,9 +5516,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>113</v>
@@ -5565,9 +5574,9 @@
         <v>110000000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>86</v>
@@ -5594,7 +5603,7 @@
         <v>130000000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>104</v>
       </c>
@@ -5621,9 +5630,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>86</v>
@@ -5650,7 +5659,7 @@
         <v>115000000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>211</v>
       </c>
@@ -5679,7 +5688,7 @@
         <v>78000000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>94</v>
       </c>
@@ -5708,7 +5717,7 @@
         <v>140000000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>194</v>
       </c>
@@ -5735,7 +5744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>115</v>
       </c>
@@ -5762,9 +5771,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>86</v>
@@ -5789,7 +5798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>126</v>
       </c>
@@ -5816,9 +5825,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>86</v>
@@ -5845,9 +5854,9 @@
         <v>77000000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>86</v>
@@ -5874,7 +5883,7 @@
         <v>71000000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>154</v>
       </c>
@@ -5903,7 +5912,7 @@
         <v>53000000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>187</v>
       </c>
@@ -5932,9 +5941,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>98</v>
@@ -5959,9 +5968,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>84</v>
@@ -5988,7 +5997,7 @@
         <v>60000000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>164</v>
       </c>
@@ -6017,7 +6026,7 @@
         <v>56000000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>134</v>
       </c>
@@ -6046,7 +6055,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>110</v>
       </c>
@@ -6075,9 +6084,9 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>86</v>
@@ -6104,7 +6113,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>163</v>
       </c>
@@ -6133,9 +6142,9 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>86</v>
@@ -6162,7 +6171,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>97</v>
       </c>
@@ -6191,9 +6200,9 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>79</v>
@@ -6218,9 +6227,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>98</v>
@@ -6245,9 +6254,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>86</v>
@@ -6272,7 +6281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>195</v>
       </c>
@@ -6299,9 +6308,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>86</v>
@@ -6328,7 +6337,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>188</v>
       </c>
@@ -6355,7 +6364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>117</v>
       </c>
@@ -6382,7 +6391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>147</v>
       </c>
@@ -6411,7 +6420,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>207</v>
       </c>
@@ -6440,7 +6449,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>124</v>
       </c>
@@ -6469,7 +6478,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>128</v>
       </c>
@@ -6496,7 +6505,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>192</v>
       </c>
@@ -6523,9 +6532,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>84</v>
@@ -6550,9 +6559,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>111</v>
@@ -6577,9 +6586,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>111</v>
@@ -6604,7 +6613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>198</v>
       </c>
@@ -6633,7 +6642,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>175</v>
       </c>
@@ -6662,9 +6671,9 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>79</v>
@@ -6689,7 +6698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>162</v>
       </c>
@@ -6718,7 +6727,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>87</v>
       </c>
@@ -6745,7 +6754,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>166</v>
       </c>
@@ -6772,7 +6781,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>106</v>
       </c>
@@ -6801,9 +6810,9 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>79</v>
@@ -6830,9 +6839,9 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>105</v>
@@ -6859,7 +6868,7 @@
         <v>570500</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>109</v>
       </c>
@@ -6888,7 +6897,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>199</v>
       </c>
@@ -6917,9 +6926,9 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>121</v>
@@ -6946,9 +6955,9 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>86</v>
@@ -6975,7 +6984,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>179</v>
       </c>
@@ -7004,9 +7013,9 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>121</v>
@@ -7033,9 +7042,9 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>86</v>
@@ -7062,7 +7071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>206</v>
       </c>
@@ -7091,7 +7100,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>116</v>
       </c>
@@ -7120,7 +7129,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>151</v>
       </c>
@@ -7149,9 +7158,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>113</v>
@@ -7178,9 +7187,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>79</v>
@@ -7207,9 +7216,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>79</v>
@@ -7236,9 +7245,9 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>121</v>
@@ -7265,9 +7274,9 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>79</v>
@@ -7294,9 +7303,9 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>79</v>
@@ -7323,9 +7332,9 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B71" s="24" t="s">
         <v>86</v>
@@ -7337,7 +7346,7 @@
         <v>96</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F71" s="24" t="s">
         <v>28</v>
@@ -7352,7 +7361,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>122</v>
       </c>
@@ -7379,7 +7388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>150</v>
       </c>
@@ -7406,7 +7415,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>200</v>
       </c>
@@ -7433,9 +7442,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>121</v>
@@ -7460,7 +7469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>157</v>
       </c>
@@ -7487,7 +7496,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>158</v>
       </c>
@@ -7514,7 +7523,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>167</v>
       </c>
@@ -7541,9 +7550,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>79</v>
@@ -7568,7 +7577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>141</v>
       </c>
@@ -7595,7 +7604,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>149</v>
       </c>
@@ -7622,7 +7631,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>173</v>
       </c>
@@ -7649,7 +7658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>208</v>
       </c>
@@ -7676,9 +7685,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>129</v>
@@ -7703,9 +7712,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>79</v>
@@ -7730,9 +7739,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>79</v>
@@ -7757,9 +7766,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>79</v>
@@ -7784,7 +7793,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>139</v>
       </c>
@@ -7811,7 +7820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
         <v>142</v>
       </c>
@@ -7838,7 +7847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>146</v>
       </c>
@@ -7865,7 +7874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
         <v>201</v>
       </c>
@@ -7892,9 +7901,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>79</v>
@@ -7919,9 +7928,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>105</v>
@@ -7946,9 +7955,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>79</v>
@@ -7973,7 +7982,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>83</v>
       </c>
@@ -8000,7 +8009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>119</v>
       </c>
@@ -8027,7 +8036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>212</v>
       </c>
@@ -8054,9 +8063,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>105</v>
@@ -8081,9 +8090,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>86</v>
@@ -8108,9 +8117,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>86</v>
@@ -8135,9 +8144,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>105</v>
@@ -8162,9 +8171,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>79</v>
@@ -8189,9 +8198,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>121</v>
@@ -8216,7 +8225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
         <v>85</v>
       </c>
@@ -8243,7 +8252,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>93</v>
       </c>
@@ -8270,7 +8279,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>101</v>
       </c>
@@ -8297,9 +8306,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>86</v>
@@ -8324,9 +8333,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>79</v>
@@ -8351,7 +8360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>112</v>
       </c>
@@ -8378,7 +8387,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>157</v>
       </c>
@@ -8405,7 +8414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>172</v>
       </c>
@@ -8432,7 +8441,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>196</v>
       </c>
@@ -8459,7 +8468,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>202</v>
       </c>
@@ -8486,7 +8495,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>204</v>
       </c>
@@ -8513,7 +8522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>213</v>
       </c>
@@ -8540,9 +8549,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>79</v>
@@ -8567,7 +8576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
         <v>120</v>
       </c>
@@ -8594,7 +8603,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
         <v>132</v>
       </c>
@@ -8621,7 +8630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
         <v>145</v>
       </c>
@@ -8648,7 +8657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>205</v>
       </c>
@@ -8675,9 +8684,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>79</v>
@@ -8702,9 +8711,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>95</v>
@@ -8729,9 +8738,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>121</v>
@@ -8756,7 +8765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>123</v>
       </c>
@@ -8783,7 +8792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>138</v>
       </c>
@@ -8810,7 +8819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
         <v>144</v>
       </c>
@@ -8837,7 +8846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>165</v>
       </c>
@@ -8864,7 +8873,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>169</v>
       </c>
@@ -8891,9 +8900,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>86</v>
@@ -8918,9 +8927,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>98</v>
@@ -8945,7 +8954,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>118</v>
       </c>
@@ -8972,7 +8981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>130</v>
       </c>
@@ -8999,9 +9008,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>86</v>
@@ -9026,9 +9035,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B134" s="15" t="s">
         <v>113</v>
@@ -9053,9 +9062,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B135" s="15" t="s">
         <v>79</v>
@@ -9080,9 +9089,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>79</v>
@@ -9107,9 +9116,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>84</v>
@@ -9134,9 +9143,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>121</v>
@@ -9161,9 +9170,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>79</v>
@@ -9188,7 +9197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
         <v>88</v>
       </c>
@@ -9215,7 +9224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
         <v>143</v>
       </c>
@@ -9242,9 +9251,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>79</v>
@@ -9269,7 +9278,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>203</v>
       </c>
@@ -9296,9 +9305,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>113</v>
@@ -9323,7 +9332,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>100</v>
       </c>
@@ -9350,7 +9359,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
         <v>148</v>
       </c>
@@ -9377,7 +9386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
         <v>171</v>
       </c>
@@ -9404,7 +9413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
         <v>176</v>
       </c>
@@ -9431,9 +9440,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>111</v>
@@ -9458,9 +9467,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>136</v>
@@ -9485,9 +9494,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>113</v>
@@ -9512,7 +9521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>91</v>
       </c>
@@ -9539,9 +9548,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B153" s="15" t="s">
         <v>95</v>
@@ -9566,9 +9575,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B154" s="15" t="s">
         <v>136</v>
@@ -9593,9 +9602,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B155" s="15" t="s">
         <v>98</v>
@@ -9620,7 +9629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
         <v>78</v>
       </c>
@@ -9647,7 +9656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
         <v>174</v>
       </c>
@@ -9674,7 +9683,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>90</v>
       </c>
@@ -9701,7 +9710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>137</v>
       </c>
@@ -9728,7 +9737,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>184</v>
       </c>
@@ -9755,7 +9764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>189</v>
       </c>
@@ -9782,7 +9791,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>191</v>
       </c>
@@ -9809,7 +9818,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>210</v>
       </c>
@@ -9836,9 +9845,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B164" s="15" t="s">
         <v>111</v>
@@ -9863,9 +9872,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B165" s="15" t="s">
         <v>79</v>
@@ -9890,9 +9899,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B166" s="15" t="s">
         <v>86</v>
@@ -9917,7 +9926,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
         <v>103</v>
       </c>
@@ -9944,7 +9953,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
         <v>153</v>
       </c>
@@ -9971,7 +9980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
         <v>178</v>
       </c>
@@ -9998,7 +10007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
         <v>190</v>
       </c>
@@ -10025,7 +10034,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
         <v>193</v>
       </c>
@@ -10052,9 +10061,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>136</v>
@@ -10079,9 +10088,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>84</v>
@@ -10106,9 +10115,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>86</v>
@@ -10133,7 +10142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>108</v>
       </c>
@@ -10160,9 +10169,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>79</v>
@@ -10187,7 +10196,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
         <v>131</v>
       </c>
@@ -10214,7 +10223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
         <v>183</v>
       </c>
@@ -10241,7 +10250,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
         <v>209</v>
       </c>
@@ -10268,7 +10277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="14" t="s">
         <v>89</v>
       </c>
@@ -10295,7 +10304,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="14" t="s">
         <v>185</v>
       </c>
@@ -10322,9 +10331,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B182" s="15" t="s">
         <v>79</v>
@@ -10349,9 +10358,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B183" s="15" t="s">
         <v>79</v>
@@ -10376,9 +10385,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B184" s="15" t="s">
         <v>121</v>
@@ -10403,7 +10412,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
         <v>186</v>
       </c>
@@ -10430,15 +10439,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C186" s="18">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D186" s="18" t="s">
         <v>80</v>
@@ -10457,15 +10466,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C187" s="18">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D187" s="18" t="s">
         <v>80</v>
@@ -10484,15 +10493,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C188" s="18">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D188" s="18" t="s">
         <v>80</v>
@@ -10511,15 +10520,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C189" s="18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D189" s="18" t="s">
         <v>80</v>
@@ -10538,12 +10547,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C190" s="18">
         <v>31</v>
@@ -10561,16 +10570,16 @@
       <c r="H190" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I190" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I190" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C191" s="18">
         <v>31</v>
@@ -10588,73 +10597,73 @@
       <c r="H191" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I191" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B192" s="18" t="s">
+      <c r="I191" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C192" s="15">
+        <v>35</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E192" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I192" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B193" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C192" s="18">
-        <v>31</v>
-      </c>
-      <c r="D192" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E192" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F192" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I192" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C193" s="18">
-        <v>31</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E193" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F193" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I193" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C193" s="15">
+        <v>36</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E193" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I193" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="14" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B194" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C194" s="15">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D194" s="15" t="s">
         <v>80</v>
@@ -10673,117 +10682,117 @@
         <v>81</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B195" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C195" s="15">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C195" s="18">
         <v>36</v>
       </c>
-      <c r="D195" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E195" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F195" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G195" s="16"/>
-      <c r="H195" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I195" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B196" s="15" t="s">
+      <c r="D195" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I195" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C196" s="18">
+        <v>30</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F196" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I196" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C196" s="15">
-        <v>31</v>
-      </c>
-      <c r="D196" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E196" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F196" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G196" s="16"/>
-      <c r="H196" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I196" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B197" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C197" s="18">
+      <c r="C197" s="15">
         <v>36</v>
       </c>
-      <c r="D197" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E197" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F197" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I197" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B198" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C198" s="18">
-        <v>30</v>
-      </c>
-      <c r="D198" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E198" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F198" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I198" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D197" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E197" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G197" s="16"/>
+      <c r="H197" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I197" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="15">
+        <v>32</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E198" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G198" s="16"/>
+      <c r="H198" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I198" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="B199" s="15" t="s">
         <v>79</v>
@@ -10808,15 +10817,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="14" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C200" s="15">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D200" s="15" t="s">
         <v>80</v>
@@ -10835,69 +10844,69 @@
         <v>81</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B201" s="15" t="s">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B201" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C201" s="15">
-        <v>36</v>
-      </c>
-      <c r="D201" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E201" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F201" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G201" s="16"/>
-      <c r="H201" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I201" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="B202" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C202" s="15">
-        <v>39</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E202" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F202" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G202" s="16"/>
-      <c r="H202" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I202" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C201" s="18">
+        <v>35</v>
+      </c>
+      <c r="D201" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E201" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F201" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G201" s="19"/>
+      <c r="H201" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I201" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B202" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C202" s="18">
+        <v>32</v>
+      </c>
+      <c r="D202" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E202" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F202" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G202" s="19"/>
+      <c r="H202" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I202" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="B203" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C203" s="18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D203" s="18" t="s">
         <v>80</v>
@@ -10916,15 +10925,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C204" s="18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D204" s="18" t="s">
         <v>80</v>
@@ -10943,15 +10952,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C205" s="18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D205" s="18" t="s">
         <v>80</v>
@@ -10970,69 +10979,69 @@
         <v>81</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B206" s="18" t="s">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C206" s="15">
+        <v>33</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E206" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F206" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I206" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B207" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C206" s="18">
+      <c r="C207" s="15">
+        <v>32</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E207" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D206" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E206" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F206" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G206" s="19"/>
-      <c r="H206" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I206" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="B207" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C207" s="18">
-        <v>30</v>
-      </c>
-      <c r="D207" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E207" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F207" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G207" s="19"/>
-      <c r="H207" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I207" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F207" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G207" s="16"/>
+      <c r="H207" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I207" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="14" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C208" s="15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D208" s="15" t="s">
         <v>80</v>
@@ -11051,78 +11060,78 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="B209" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C209" s="15">
-        <v>32</v>
-      </c>
-      <c r="D209" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E209" s="15" t="s">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B209" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C209" s="18">
         <v>30</v>
       </c>
-      <c r="F209" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G209" s="16"/>
-      <c r="H209" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I209" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C210" s="15">
-        <v>32</v>
-      </c>
-      <c r="D210" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E210" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F210" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G210" s="16"/>
-      <c r="H210" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I210" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D209" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E209" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F209" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I209" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B210" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C210" s="18">
+        <v>31</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F210" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I210" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C211" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D211" s="18" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E211" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="G211" s="19"/>
       <c r="H211" s="19" t="s">
@@ -11132,15 +11141,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C212" s="18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D212" s="18" t="s">
         <v>80</v>
@@ -11159,118 +11168,69 @@
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="B213" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C213" s="18">
-        <v>31</v>
-      </c>
-      <c r="D213" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E213" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F213" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G213" s="19"/>
-      <c r="H213" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I213" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="B214" s="18" t="s">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C213" s="15">
+        <v>38</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F213" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G213" s="16"/>
+      <c r="H213" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I213" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C214" s="18">
-        <v>33</v>
-      </c>
-      <c r="D214" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E214" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F214" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G214" s="19"/>
-      <c r="H214" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I214" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B215" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C215" s="15">
-        <v>38</v>
-      </c>
-      <c r="D215" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E215" s="15" t="s">
+      <c r="C214" s="15">
+        <v>39</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E214" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F215" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G215" s="16"/>
-      <c r="H215" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I215" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B216" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C216" s="15">
-        <v>39</v>
-      </c>
-      <c r="D216" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E216" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F216" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G216" s="16"/>
-      <c r="H216" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I216" s="27" t="s">
+      <c r="F214" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I214" s="27" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I216" xr:uid="{CDD05EC5-E6D6-4A9F-BCDC-1928974AB8A6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I216">
-      <sortCondition ref="H2:H216"/>
+  <autoFilter ref="A2:I214" xr:uid="{CDD05EC5-E6D6-4A9F-BCDC-1928974AB8A6}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Blue Jays"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I214">
+      <sortCondition ref="H2:H214"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -11287,11 +11247,11 @@
     <hyperlink ref="A30" r:id="rId11" display="https://www.espn.com/mlb/player/_/id/30901/brandon-belt" xr:uid="{B8478843-E3B8-4BF4-8EE8-CB792EB3D6A9}"/>
     <hyperlink ref="A145" r:id="rId12" display="https://www.espn.com/mlb/player/_/id/31122/dellin-betances" xr:uid="{98026056-44D1-449F-B732-B11E6E5DD8CA}"/>
     <hyperlink ref="A106" r:id="rId13" display="https://www.espn.com/mlb/player/_/id/31495/brad-boxberger" xr:uid="{8D16AF4C-0BC5-42BB-8502-0FBC0F5C90D5}"/>
-    <hyperlink ref="A194" r:id="rId14" display="https://www.espn.com/mlb/player/_/id/31000/brad-brach" xr:uid="{2942E605-D0DC-40FC-AE3D-B3970112BA90}"/>
+    <hyperlink ref="A192" r:id="rId14" display="https://www.espn.com/mlb/player/_/id/31000/brad-brach" xr:uid="{2942E605-D0DC-40FC-AE3D-B3970112BA90}"/>
     <hyperlink ref="A167" r:id="rId15" display="https://www.espn.com/mlb/player/_/id/32518/archie-bradley" xr:uid="{D62E5BDB-20FB-4C02-A7C7-1D4B2210307D}"/>
     <hyperlink ref="A10" r:id="rId16" display="https://www.espn.com/mlb/player/_/id/33172/kris-bryant" xr:uid="{B83A9FF1-0C26-4A02-A327-326BE8CBF71E}"/>
     <hyperlink ref="A52" r:id="rId17" display="https://www.espn.com/mlb/player/_/id/32094/dylan-bundy" xr:uid="{FAE59A84-C5CE-4E42-B58D-E581C10B44F4}"/>
-    <hyperlink ref="A195" r:id="rId18" display="https://www.espn.com/mlb/player/_/id/28671/asdrubal-cabrera" xr:uid="{8F5B478A-AB5F-4230-833E-063222700F0A}"/>
+    <hyperlink ref="A193" r:id="rId18" display="https://www.espn.com/mlb/player/_/id/28671/asdrubal-cabrera" xr:uid="{8F5B478A-AB5F-4230-833E-063222700F0A}"/>
     <hyperlink ref="A175" r:id="rId19" display="https://www.espn.com/mlb/player/_/id/30054/trevor-cahill" xr:uid="{ED543214-6D3A-4D7F-BB25-3BE37141CF0E}"/>
     <hyperlink ref="A55" r:id="rId20" display="https://www.espn.com/mlb/player/_/id/31413/kole-calhoun" xr:uid="{51E75445-165D-4D11-9FAB-9F5AB8D290C7}"/>
     <hyperlink ref="A26" r:id="rId21" display="https://www.espn.com/mlb/player/_/id/31670/mark-canha" xr:uid="{37190772-9E0D-4FD6-B568-57E69F9B0F3F}"/>
@@ -11305,16 +11265,16 @@
     <hyperlink ref="A72" r:id="rId29" display="https://www.espn.com/mlb/player/_/id/30963/steve-cishek" xr:uid="{2E2942DE-0AF2-43D4-81B5-D5A3BE4E0048}"/>
     <hyperlink ref="A124" r:id="rId30" display="https://www.espn.com/mlb/player/_/id/28694/tyler-clippard" xr:uid="{6F499873-D62B-4D80-B5F2-26BB095E1325}"/>
     <hyperlink ref="A40" r:id="rId31" display="https://www.espn.com/mlb/player/_/id/31086/alex-cobb" xr:uid="{70E31707-309C-4A13-A596-EE2846F4F03F}"/>
-    <hyperlink ref="A208" r:id="rId32" display="https://www.espn.com/mlb/player/_/id/31255/alex-colome" xr:uid="{BA6C9B84-8A65-49B4-9C03-92DA3521C688}"/>
+    <hyperlink ref="A206" r:id="rId32" display="https://www.espn.com/mlb/player/_/id/31255/alex-colome" xr:uid="{BA6C9B84-8A65-49B4-9C03-92DA3521C688}"/>
     <hyperlink ref="A17" r:id="rId33" display="https://www.espn.com/mlb/player/_/id/33711/michael-conforto" xr:uid="{40064915-4EA8-420A-B882-2564F0FEEC88}"/>
     <hyperlink ref="A3" r:id="rId34" display="https://www.espn.com/mlb/player/_/id/32653/carlos-correa" xr:uid="{FDED5751-BB63-44F7-AE97-357BF11CCB46}"/>
     <hyperlink ref="A41" r:id="rId35" display="https://www.espn.com/mlb/player/_/id/6242/nelson-cruz" xr:uid="{C1C12FE8-15E4-4139-AA78-98EE954FAAEA}"/>
     <hyperlink ref="A132" r:id="rId36" display="https://www.espn.com/mlb/player/_/id/28955/johnny-cueto" xr:uid="{9D295A32-1DF7-4391-89D6-71A2EA8A9A37}"/>
     <hyperlink ref="A177" r:id="rId37" display="https://www.espn.com/mlb/player/_/id/29955/charlie-culberson" xr:uid="{76FA6F6C-C2D8-4040-91F7-D9BDB66012BD}"/>
     <hyperlink ref="A118" r:id="rId38" display="https://www.espn.com/mlb/player/_/id/33829/zach-davies" xr:uid="{5EE91CFE-3AD2-45E7-8E8E-866A19F61746}"/>
-    <hyperlink ref="A199" r:id="rId39" display="https://www.espn.com/mlb/player/_/id/28957/wade-davis" xr:uid="{A703EC8F-D174-40A2-8030-C2ACCE864D41}"/>
+    <hyperlink ref="A197" r:id="rId39" display="https://www.espn.com/mlb/player/_/id/28957/wade-davis" xr:uid="{A703EC8F-D174-40A2-8030-C2ACCE864D41}"/>
     <hyperlink ref="A25" r:id="rId40" display="https://www.espn.com/mlb/player/_/id/33180/anthony-desclafani" xr:uid="{75DEAD31-0726-4F20-A632-1D003E15F41A}"/>
-    <hyperlink ref="A197" r:id="rId41" display="https://www.espn.com/mlb/player/_/id/29646/ian-desmond" xr:uid="{17BAC89E-1FF0-4364-B9B3-34D379CE28E8}"/>
+    <hyperlink ref="A195" r:id="rId41" display="https://www.espn.com/mlb/player/_/id/29646/ian-desmond" xr:uid="{17BAC89E-1FF0-4364-B9B3-34D379CE28E8}"/>
     <hyperlink ref="A159" r:id="rId42" display="https://www.espn.com/mlb/player/_/id/28895/ross-detwiler" xr:uid="{5902DBE1-E382-40E5-810C-90B72231AD54}"/>
     <hyperlink ref="A125" r:id="rId43" display="https://www.espn.com/mlb/player/_/id/32511/chris-devenski" xr:uid="{90292F1E-669E-4511-84C2-9B49675DE851}"/>
     <hyperlink ref="A88" r:id="rId44" display="https://www.espn.com/mlb/player/_/id/31684/corey-dickerson" xr:uid="{27AA9E8D-A33A-468D-9CB8-234919EDF61D}"/>
@@ -11332,33 +11292,33 @@
     <hyperlink ref="A5" r:id="rId56" display="https://www.espn.com/mlb/player/_/id/30193/freddie-freeman" xr:uid="{5599C4CE-9CF9-480D-8D82-F4987BF3C7B4}"/>
     <hyperlink ref="A168" r:id="rId57" display="https://www.espn.com/mlb/player/_/id/29670/freddy-galvis" xr:uid="{28878114-681F-48C6-B37F-5A1634684C66}"/>
     <hyperlink ref="A20" r:id="rId58" display="https://www.espn.com/mlb/player/_/id/30729/avisail-garcia" xr:uid="{8A516DAC-58AE-4A5B-9DA7-BA89AD3ACEC6}"/>
-    <hyperlink ref="A211" r:id="rId59" display="https://www.espn.com/mlb/player/_/id/30664/leury-garcia" xr:uid="{70473B3B-999F-491B-B318-049835791657}"/>
+    <hyperlink ref="A209" r:id="rId59" display="https://www.espn.com/mlb/player/_/id/30664/leury-garcia" xr:uid="{70473B3B-999F-491B-B318-049835791657}"/>
     <hyperlink ref="A110" r:id="rId60" display="https://www.espn.com/mlb/player/_/id/33089/luis-garcia" xr:uid="{73F9EFAD-970E-4DF3-9FCA-DBA4B6EAD6F4}"/>
     <hyperlink ref="A76" r:id="rId61" display="https://www.espn.com/mlb/player/_/id/4684365/luis-garcia" xr:uid="{1F9A46BC-4CDD-4999-B0F0-A59BAFE7BA5A}"/>
     <hyperlink ref="A77" r:id="rId62" display="https://www.espn.com/mlb/player/_/id/32888/yimi-garcia" xr:uid="{D6793242-FF57-4A2B-A6D8-57089497DC49}"/>
-    <hyperlink ref="A215" r:id="rId63" display="https://www.espn.com/mlb/player/_/id/29174/brett-gardner" xr:uid="{ABD1163A-B5A8-4358-9A99-8791AAC8A38C}"/>
+    <hyperlink ref="A213" r:id="rId63" display="https://www.espn.com/mlb/player/_/id/29174/brett-gardner" xr:uid="{ABD1163A-B5A8-4358-9A99-8791AAC8A38C}"/>
     <hyperlink ref="A8" r:id="rId64" display="https://www.espn.com/mlb/player/_/id/32667/kevin-gausman" xr:uid="{EB81A572-2EAA-4D8B-BE15-504C67BFF017}"/>
-    <hyperlink ref="A196" r:id="rId65" display="https://www.espn.com/mlb/player/_/id/31618/mychal-givens" xr:uid="{D6BEA920-9FD0-40D1-A466-72F0211281FA}"/>
+    <hyperlink ref="A194" r:id="rId65" display="https://www.espn.com/mlb/player/_/id/31618/mychal-givens" xr:uid="{D6BEA920-9FD0-40D1-A466-72F0211281FA}"/>
     <hyperlink ref="A49" r:id="rId66" display="https://www.espn.com/mlb/player/_/id/32108/yan-gomes" xr:uid="{7FB503F7-63BE-4533-A935-0F0D459BADCB}"/>
     <hyperlink ref="A28" r:id="rId67" display="https://www.espn.com/mlb/player/_/id/33636/kendall-graveman" xr:uid="{25905313-A19F-4C28-953B-D1D47F0B946E}"/>
     <hyperlink ref="A24" r:id="rId68" display="https://www.espn.com/mlb/player/_/id/33203/jon-gray" xr:uid="{AE4DFB2C-1913-455F-BED8-7FE6E17644A8}"/>
     <hyperlink ref="A127" r:id="rId69" display="https://www.espn.com/mlb/player/_/id/32704/shane-greene" xr:uid="{495D1CE0-2514-4586-B5BA-A18CD5586A53}"/>
     <hyperlink ref="A51" r:id="rId70" display="https://www.espn.com/mlb/player/_/id/5883/zack-greinke" xr:uid="{623978BF-5485-4366-939D-7B691B3CA7A2}"/>
     <hyperlink ref="A78" r:id="rId71" display="https://www.espn.com/mlb/player/_/id/36006/yuli-gurriel" xr:uid="{2323ABF6-E6E1-40AB-B345-DFB26E1B2779}"/>
-    <hyperlink ref="A200" r:id="rId72" display="https://www.espn.com/mlb/player/_/id/33108/jesse-hahn" xr:uid="{3856CC81-9FA7-43E8-8FB8-15300C5EA3BE}"/>
+    <hyperlink ref="A198" r:id="rId72" display="https://www.espn.com/mlb/player/_/id/33108/jesse-hahn" xr:uid="{3856CC81-9FA7-43E8-8FB8-15300C5EA3BE}"/>
     <hyperlink ref="A128" r:id="rId73" display="https://www.espn.com/mlb/player/_/id/6216/cole-hamels" xr:uid="{9838FE65-1003-463C-A83D-2B3CCA22A0FB}"/>
-    <hyperlink ref="A212" r:id="rId74" display="https://www.espn.com/mlb/player/_/id/31042/billy-hamilton" xr:uid="{8FB61693-96FD-46F7-A3F6-9A16404EB852}"/>
+    <hyperlink ref="A210" r:id="rId74" display="https://www.espn.com/mlb/player/_/id/31042/billy-hamilton" xr:uid="{8FB61693-96FD-46F7-A3F6-9A16404EB852}"/>
     <hyperlink ref="A147" r:id="rId75" display="https://www.espn.com/mlb/player/_/id/31077/brad-hand" xr:uid="{293456C3-CA3B-41DF-AF40-43E8139C4A38}"/>
     <hyperlink ref="A111" r:id="rId76" display="https://www.espn.com/mlb/player/_/id/28817/j.a.-happ" xr:uid="{1018D99B-F8A0-4407-AAA3-52450CDF9DBC}"/>
     <hyperlink ref="A82" r:id="rId77" display="https://www.espn.com/mlb/player/_/id/30934/josh-harrison" xr:uid="{829C7D56-5BB1-4938-9E8A-B2D284E66798}"/>
     <hyperlink ref="A157" r:id="rId78" display="https://www.espn.com/mlb/player/_/id/31214/matt-harvey" xr:uid="{DBC93DF5-7558-413A-8207-BF06FA2AEF83}"/>
     <hyperlink ref="A47" r:id="rId79" display="https://www.espn.com/mlb/player/_/id/32672/andrew-heaney" xr:uid="{282E7551-DBA7-4602-97ED-3136E8F18C66}"/>
     <hyperlink ref="A148" r:id="rId80" display="https://www.espn.com/mlb/player/_/id/31840/heath-hembree" xr:uid="{BE2A943A-8FE1-450C-A0E9-1DDC0481A7CC}"/>
-    <hyperlink ref="A213" r:id="rId81" display="https://www.espn.com/mlb/player/_/id/31130/cesar-hernandez" xr:uid="{16D2B104-1F5A-47B4-9FB5-A71DDBAA25B6}"/>
+    <hyperlink ref="A211" r:id="rId81" display="https://www.espn.com/mlb/player/_/id/31130/cesar-hernandez" xr:uid="{16D2B104-1F5A-47B4-9FB5-A71DDBAA25B6}"/>
     <hyperlink ref="A169" r:id="rId82" display="https://www.espn.com/mlb/player/_/id/32868/odubel-herrera" xr:uid="{1CB369A0-4227-462C-84D0-06606BCF83CB}"/>
     <hyperlink ref="A59" r:id="rId83" display="https://www.espn.com/mlb/player/_/id/6321/rich-hill" xr:uid="{F85BAC83-1194-456B-AF36-4DCBF0BF2AB7}"/>
-    <hyperlink ref="A203" r:id="rId84" display="https://www.espn.com/mlb/player/_/id/30148/derek-holland" xr:uid="{722BB6C4-C620-4E3B-9E39-EC7CED5592D6}"/>
-    <hyperlink ref="A201" r:id="rId85" display="https://www.espn.com/mlb/player/_/id/30945/greg-holland" xr:uid="{115004A8-D8D4-466E-AD6C-1252228D028D}"/>
+    <hyperlink ref="A201" r:id="rId84" display="https://www.espn.com/mlb/player/_/id/30148/derek-holland" xr:uid="{722BB6C4-C620-4E3B-9E39-EC7CED5592D6}"/>
+    <hyperlink ref="A199" r:id="rId85" display="https://www.espn.com/mlb/player/_/id/30945/greg-holland" xr:uid="{115004A8-D8D4-466E-AD6C-1252228D028D}"/>
     <hyperlink ref="A178" r:id="rId86" display="https://www.espn.com/mlb/player/_/id/30841/brock-holt" xr:uid="{913D6C04-A6C2-4923-8966-D8B78B5ADF21}"/>
     <hyperlink ref="A160" r:id="rId87" display="https://www.espn.com/mlb/player/_/id/30376/daniel-hudson" xr:uid="{B209A7AB-BE28-4148-94A1-B30008A77256}"/>
     <hyperlink ref="A181" r:id="rId88" display="https://www.espn.com/mlb/player/_/id/29198/tommy-hunter" xr:uid="{1C4465DD-8E6C-465D-90CA-412BACD11123}"/>
@@ -11373,7 +11333,7 @@
     <hyperlink ref="A14" r:id="rId97" display="https://www.espn.com/mlb/player/_/id/28963/clayton-kershaw" xr:uid="{B9989D1F-97D9-45DB-A14E-1D213BD0B5B9}"/>
     <hyperlink ref="A34" r:id="rId98" display="https://www.espn.com/mlb/player/_/id/41415/yusei-kikuchi" xr:uid="{3B98887C-2876-4685-B194-473C6D677EEF}"/>
     <hyperlink ref="A112" r:id="rId99" display="https://www.espn.com/mlb/player/_/id/42384/kwang-hyun-kim" xr:uid="{E7A4A7CD-382D-4A87-9A99-6EC548918EDA}"/>
-    <hyperlink ref="A214" r:id="rId100" display="https://www.espn.com/mlb/player/_/id/30653/craig-kimbrel" xr:uid="{233A1B68-AC4B-4A4B-9B95-4A2548F9864D}"/>
+    <hyperlink ref="A212" r:id="rId100" display="https://www.espn.com/mlb/player/_/id/30653/craig-kimbrel" xr:uid="{233A1B68-AC4B-4A4B-9B95-4A2548F9864D}"/>
     <hyperlink ref="A46" r:id="rId101" display="https://www.espn.com/mlb/player/_/id/30981/corey-kluber" xr:uid="{5E1EE83E-9619-436B-BC81-F54E61E4597B}"/>
     <hyperlink ref="A56" r:id="rId102" display="https://www.espn.com/mlb/player/_/id/33206/corey-knebel" xr:uid="{03BE7D2F-8750-40A0-A593-C2CC915A9604}"/>
     <hyperlink ref="A74" r:id="rId103" display="https://www.espn.com/mlb/player/_/id/31410/juan-lagares" xr:uid="{658DCC5C-34B2-48DB-A5AF-C1A073CAF632}"/>
@@ -11390,106 +11350,104 @@
     <hyperlink ref="A12" r:id="rId114" display="https://www.espn.com/mlb/player/_/id/30830/starling-marte" xr:uid="{3C1993A5-1F61-492C-BED0-E31D9EFE801D}"/>
     <hyperlink ref="A97" r:id="rId115" display="https://www.espn.com/mlb/player/_/id/32903/chris-martin" xr:uid="{4A2C321C-10C5-4E43-B791-C1D39945635E}"/>
     <hyperlink ref="A115" r:id="rId116" display="https://www.espn.com/mlb/player/_/id/31340/carlos-martinez" xr:uid="{AD3CD1F2-04BD-4FB2-95F7-A762A0ECC1B7}"/>
-    <hyperlink ref="A186" r:id="rId117" display="https://www.espn.com/mlb/player/_/id/31065/j.d.-martinez" xr:uid="{F796FE5E-0E42-48CC-9F5C-508FB8FC8B59}"/>
-    <hyperlink ref="A71" r:id="rId118" display="https://www.espn.com/mlb/player/_/id/33372/nick-martinez" xr:uid="{C392A170-6B38-4DA8-99C1-C5A6917231C9}"/>
-    <hyperlink ref="A29" r:id="rId119" display="https://www.espn.com/mlb/player/_/id/33106/steven-matz" xr:uid="{90A8EB60-21B1-46E9-A137-CCEC4A671954}"/>
-    <hyperlink ref="A149" r:id="rId120" display="https://www.espn.com/mlb/player/_/id/6455/cameron-maybin" xr:uid="{0A05636E-C29D-49F4-A8F8-91C5F677C35A}"/>
-    <hyperlink ref="A172" r:id="rId121" display="https://www.espn.com/mlb/player/_/id/28701/andrew-mccutchen" xr:uid="{9FBD98AF-43B7-489C-B335-64B7E42C4698}"/>
-    <hyperlink ref="A53" r:id="rId122" display="https://www.espn.com/mlb/player/_/id/32680/t.j.-mcfarland" xr:uid="{8DB76626-C61A-448D-B278-D87F9F9ADA90}"/>
-    <hyperlink ref="A48" r:id="rId123" display="https://www.espn.com/mlb/player/_/id/32569/collin-mchugh" xr:uid="{483EB294-6801-4733-9C6F-8A1E3A08B331}"/>
-    <hyperlink ref="A69" r:id="rId124" display="https://www.espn.com/mlb/player/_/id/29446/mark-melancon" xr:uid="{2998240E-D4E5-41D3-809F-6A795B383188}"/>
-    <hyperlink ref="A153" r:id="rId125" display="https://www.espn.com/mlb/player/_/id/30687/jordy-mercer" xr:uid="{A3454F23-8A89-499A-82D2-B2C6E5CEA387}"/>
-    <hyperlink ref="A116" r:id="rId126" display="https://www.espn.com/mlb/player/_/id/28563/andrew-miller" xr:uid="{D5DCB720-C02D-4A2C-B040-683D75590B23}"/>
-    <hyperlink ref="A173" r:id="rId127" display="https://www.espn.com/mlb/player/_/id/32206/brad-miller" xr:uid="{1EAE67EF-0D07-4E1E-9FCA-7EDB2169AE30}"/>
-    <hyperlink ref="A174" r:id="rId128" display="https://www.espn.com/mlb/player/_/id/31099/matt-moore" xr:uid="{20398466-1A6B-4A19-B73C-A38F1E232A1F}"/>
-    <hyperlink ref="A84" r:id="rId129" display="https://www.espn.com/mlb/player/_/id/30452/mitch-moreland" xr:uid="{382FEA77-38C7-4C8C-BDD3-15FFA0B33E36}"/>
-    <hyperlink ref="A121" r:id="rId130" display="https://www.espn.com/mlb/player/_/id/32636/adam-morgan" xr:uid="{EC6564E3-506E-4EE0-9079-A72B3D8D39BE}"/>
-    <hyperlink ref="A129" r:id="rId131" display="https://www.espn.com/mlb/player/_/id/32738/jimmy-nelson" xr:uid="{F4903422-71EE-4514-AA3A-0EB04ABB744B}"/>
-    <hyperlink ref="A70" r:id="rId132" display="https://www.espn.com/mlb/player/_/id/32377/hector-neris" xr:uid="{7C28D075-3787-45DC-B158-6E2F0482012A}"/>
-    <hyperlink ref="A107" r:id="rId133" display="https://www.espn.com/mlb/player/_/id/33199/daniel-norris" xr:uid="{53AF1058-E8CE-4340-8BFF-915E5877C028}"/>
-    <hyperlink ref="A216" r:id="rId134" display="https://www.espn.com/mlb/player/_/id/29081/darren-o'day" xr:uid="{AA5A3289-74BE-4852-ABF2-B6F119949A3B}"/>
-    <hyperlink ref="A65" r:id="rId135" display="https://www.espn.com/mlb/player/_/id/32170/rougned-odor" xr:uid="{31A8C79F-AB05-4B4A-ACC5-B9A3C41E815B}"/>
-    <hyperlink ref="A187" r:id="rId136" display="https://www.espn.com/mlb/player/_/id/29705/adam-ottavino" xr:uid="{99DF64E6-33CF-4D0D-965E-7B5CE426EA33}"/>
-    <hyperlink ref="A198" r:id="rId137" display="https://www.espn.com/mlb/player/_/id/30862/chris-owings" xr:uid="{AFE0A9DC-C143-4A98-8380-33C5B9B7FB16}"/>
-    <hyperlink ref="A144" r:id="rId138" display="https://www.espn.com/mlb/player/_/id/32087/joe-panik" xr:uid="{3400C6B8-8E64-483A-B75B-25C062337F26}"/>
-    <hyperlink ref="A136" r:id="rId139" display="https://www.espn.com/mlb/player/_/id/30517/blake-parker" xr:uid="{011593CE-8F3C-4D23-9D4D-836A85FAFDA5}"/>
-    <hyperlink ref="A154" r:id="rId140" display="https://www.espn.com/mlb/player/_/id/29807/gerardo-parra" xr:uid="{27632671-B378-4115-BB46-3B09E2341E4C}"/>
-    <hyperlink ref="A58" r:id="rId141" display="https://www.espn.com/mlb/player/_/id/31980/james-paxton" xr:uid="{77A0A507-A560-4943-8E99-645A165A5531}"/>
-    <hyperlink ref="A98" r:id="rId142" display="https://www.espn.com/mlb/player/_/id/31392/joc-pederson" xr:uid="{34AD35F2-CD1A-4C3E-8959-963330D4249C}"/>
-    <hyperlink ref="A204" r:id="rId143" display="https://www.espn.com/mlb/player/_/id/31140/wily-peralta" xr:uid="{FCFAA955-CEA9-4553-9A56-5BBE89318296}"/>
-    <hyperlink ref="A188" r:id="rId144" display="https://www.espn.com/mlb/player/_/id/31098/martin-perez" xr:uid="{1B0BB3F9-FD22-4F13-9633-44066C10FE49}"/>
-    <hyperlink ref="A57" r:id="rId145" display="https://www.espn.com/mlb/player/_/id/32265/roberto-perez" xr:uid="{9A40D894-43DF-4AAE-83CF-0E467DDBF34F}"/>
-    <hyperlink ref="A85" r:id="rId146" display="https://www.espn.com/mlb/player/_/id/6470/yusmeiro-petit" xr:uid="{C70E5E28-E971-446C-86C6-F5C8436FC08F}"/>
-    <hyperlink ref="A45" r:id="rId147" display="https://www.espn.com/mlb/player/_/id/31208/tommy-pham" xr:uid="{493EF7BF-6963-402F-A4A5-6FB76D1D86F3}"/>
-    <hyperlink ref="A92" r:id="rId148" display="https://www.espn.com/mlb/player/_/id/31124/david-phelps" xr:uid="{4392168B-9624-4962-B706-38FEED8804F1}"/>
-    <hyperlink ref="A150" r:id="rId149" display="https://www.espn.com/mlb/player/_/id/32859/kevin-pillar" xr:uid="{8FC51A87-136C-436B-ACA7-EE2BB0D0CCF3}"/>
-    <hyperlink ref="A68" r:id="rId150" display="https://www.espn.com/mlb/player/_/id/30268/manny-pina" xr:uid="{E7D71A89-E465-47EB-BB4B-BB0D1E87DC65}"/>
-    <hyperlink ref="A209" r:id="rId151" display="https://www.espn.com/mlb/player/_/id/30937/michael-pineda" xr:uid="{EC6E988C-9CB9-4A77-AD57-EDAC713067EE}"/>
-    <hyperlink ref="A54" r:id="rId152" display="https://www.espn.com/mlb/player/_/id/35019/nick-plummer" xr:uid="{20AD024C-44A4-421A-A07C-71DEA2F474E3}"/>
-    <hyperlink ref="A93" r:id="rId153" display="https://www.espn.com/mlb/player/_/id/32950/gregory-polanco" xr:uid="{9E0CD57D-0D9B-42D6-B80D-2591D67C0B12}"/>
-    <hyperlink ref="A164" r:id="rId154" display="https://www.espn.com/mlb/player/_/id/31117/jurickson-profar" xr:uid="{BECAA05A-6AAC-4BF8-8210-958185FDCEA2}"/>
-    <hyperlink ref="A130" r:id="rId155" display="https://www.espn.com/mlb/player/_/id/4574/albert-pujols" xr:uid="{C084BBC5-71F2-455B-B84A-87FB60778687}"/>
-    <hyperlink ref="A133" r:id="rId156" display="https://www.espn.com/mlb/player/_/id/32106/jose-quintana" xr:uid="{A20CE7B9-DE40-4893-B6CF-886E19E09C98}"/>
-    <hyperlink ref="A79" r:id="rId157" display="https://www.espn.com/mlb/player/_/id/32005/brooks-raley" xr:uid="{4D0F5527-C725-4E2C-824B-6A83CE0B5A83}"/>
-    <hyperlink ref="A205" r:id="rId158" display="https://www.espn.com/mlb/player/_/id/31983/erasmo-ramirez" xr:uid="{0DEA9114-ACB7-4715-915C-6CBF11CEB995}"/>
-    <hyperlink ref="A137" r:id="rId159" display="https://www.espn.com/mlb/player/_/id/32801/jose-ramirez" xr:uid="{BE9445B0-CD22-4F9D-B66D-265FCC1BC505}"/>
-    <hyperlink ref="A138" r:id="rId160" display="https://www.espn.com/mlb/player/_/id/30173/wilson-ramos" xr:uid="{B5FD5F61-F9D4-49F3-9464-D1DB8B4C030F}"/>
-    <hyperlink ref="A11" r:id="rId161" display="https://www.espn.com/mlb/player/_/id/32175/robbie-ray" xr:uid="{23AF8D58-7A01-4937-8E78-EA244376E1BE}"/>
-    <hyperlink ref="A189" r:id="rId162" display="https://www.espn.com/mlb/player/_/id/30892/garrett-richards" xr:uid="{DE69ABA8-8A91-4D11-AB0F-0ACB08E380B0}"/>
-    <hyperlink ref="A32" r:id="rId163" display="https://www.espn.com/mlb/player/_/id/30782/anthony-rizzo" xr:uid="{1007367B-EA55-4C28-9F99-FE0B52CBE70D}"/>
-    <hyperlink ref="A99" r:id="rId164" display="https://www.espn.com/mlb/player/_/id/31593/tanner-roark" xr:uid="{542EC09B-C484-400C-BB25-2166EE687108}"/>
-    <hyperlink ref="A182" r:id="rId165" display="https://www.espn.com/mlb/player/_/id/29172/david-robertson" xr:uid="{D4346504-74BF-4CEF-93B3-D06069B61A67}"/>
-    <hyperlink ref="A190" r:id="rId166" display="https://www.espn.com/mlb/player/_/id/32666/hansel-robles" xr:uid="{9504C193-C156-4F95-B5F6-EB458FCB7E14}"/>
-    <hyperlink ref="A16" r:id="rId167" display="https://www.espn.com/mlb/player/_/id/33696/carlos-rodon" xr:uid="{20843204-F1EB-4F28-915D-93482E7179A2}"/>
-    <hyperlink ref="A18" r:id="rId168" display="https://www.espn.com/mlb/player/_/id/32675/eduardo-rodriguez" xr:uid="{38602414-FE61-4F06-9637-BFD4320A4C79}"/>
-    <hyperlink ref="A66" r:id="rId169" display="https://www.espn.com/mlb/player/_/id/33104/joely-rodriguez" xr:uid="{CD0B9349-03FD-4AAF-B36A-798DD6EC319F}"/>
-    <hyperlink ref="A183" r:id="rId170" display="https://www.espn.com/mlb/player/_/id/30412/chaz-roe" xr:uid="{947D78C5-A795-4691-BC1B-4EF96333C467}"/>
-    <hyperlink ref="A122" r:id="rId171" display="https://www.espn.com/mlb/player/_/id/29330/andrew-romine" xr:uid="{8B56DA7D-1D75-4E60-BE0B-260678D06E67}"/>
-    <hyperlink ref="A123" r:id="rId172" display="https://www.espn.com/mlb/player/_/id/29470/austin-romine" xr:uid="{70F5D396-33F6-4671-9420-55586DF059D5}"/>
-    <hyperlink ref="A86" r:id="rId173" display="https://www.espn.com/mlb/player/_/id/29168/sergio-romo" xr:uid="{70F82111-8740-4B2C-AF1C-FA68E732E767}"/>
-    <hyperlink ref="A44" r:id="rId174" display="https://www.espn.com/mlb/player/_/id/31944/eddie-rosario" xr:uid="{B4282758-61ED-4143-9816-11A447E0A630}"/>
-    <hyperlink ref="A87" r:id="rId175" display="https://www.espn.com/mlb/player/_/id/31945/trevor-rosenthal" xr:uid="{28ED31B1-3A5B-4251-828B-3942B718E98D}"/>
-    <hyperlink ref="A191" r:id="rId176" display="https://www.espn.com/mlb/player/_/id/31387/danny-santana" xr:uid="{1B56F64A-8C39-40E7-B6CA-32422DBE461A}"/>
-    <hyperlink ref="A202" r:id="rId177" display="https://www.espn.com/mlb/player/_/id/6280/ervin-santana" xr:uid="{52E716F9-9864-44EF-8056-B147BFD6768F}"/>
-    <hyperlink ref="A9" r:id="rId178" display="https://www.espn.com/mlb/player/_/id/28976/max-scherzer" xr:uid="{1E11484F-611D-45CC-A6B3-36E0CDD13663}"/>
-    <hyperlink ref="A22" r:id="rId179" display="https://www.espn.com/mlb/player/_/id/33712/kyle-schwarber" xr:uid="{A1C94381-F468-4798-9C1A-F6E559057626}"/>
-    <hyperlink ref="A4" r:id="rId180" display="https://www.espn.com/mlb/player/_/id/32691/corey-seager" xr:uid="{513DF30F-4DFF-4FDB-B4C6-4E2F135BDAC6}"/>
-    <hyperlink ref="A43" r:id="rId181" display="https://www.espn.com/mlb/player/_/id/30819/kyle-seager" xr:uid="{796104D8-0AC4-41F7-8CDF-7E6B67B841A6}"/>
-    <hyperlink ref="A7" r:id="rId182" display="https://www.espn.com/mlb/player/_/id/32146/marcus-semien" xr:uid="{D0CFDF0D-2DB4-4E8A-A925-1F410BCB85AC}"/>
-    <hyperlink ref="A60" r:id="rId183" display="https://www.espn.com/mlb/player/_/id/33299/pedro-severino" xr:uid="{8D07F44F-CA00-4E86-A328-8F22B82CF8F7}"/>
-    <hyperlink ref="A139" r:id="rId184" display="https://www.espn.com/mlb/player/_/id/30589/bryan-shaw" xr:uid="{453C1C4B-A953-4E43-82D4-D44742F47C5C}"/>
-    <hyperlink ref="A192" r:id="rId185" display="https://www.espn.com/mlb/player/_/id/32890/travis-shaw" xr:uid="{C7D45DF1-C9AF-4FD5-B628-CB911DF8283E}"/>
-    <hyperlink ref="A176" r:id="rId186" display="https://www.espn.com/mlb/player/_/id/33014/chasen-shreve" xr:uid="{59142467-68EF-4510-822F-E90DFCBF41B4}"/>
-    <hyperlink ref="A210" r:id="rId187" display="https://www.espn.com/mlb/player/_/id/31728/andrelton-simmons" xr:uid="{DDB660FE-E879-485D-BACB-3A3983BD0250}"/>
-    <hyperlink ref="A142" r:id="rId188" display="https://www.espn.com/mlb/player/_/id/28729/joe-smith" xr:uid="{20714CE3-99FE-434E-90A8-D6F19E1A0C12}"/>
-    <hyperlink ref="A100" r:id="rId189" display="https://www.espn.com/mlb/player/_/id/31816/drew-smyly" xr:uid="{77B677FF-5336-4B91-9A0C-50EABBA17329}"/>
-    <hyperlink ref="A134" r:id="rId190" display="https://www.espn.com/mlb/player/_/id/29703/donovan-solano" xr:uid="{8B6EE10A-FDFE-4C68-9766-09883710135C}"/>
-    <hyperlink ref="A101" r:id="rId191" display="https://www.espn.com/mlb/player/_/id/32558/jorge-soler" xr:uid="{67F90889-7DCC-40A4-AD9A-586BBF341A06}"/>
-    <hyperlink ref="A94" r:id="rId192" display="https://www.espn.com/mlb/player/_/id/28688/joakim-soria" xr:uid="{B14F8783-8B22-4020-9201-CB8C9874D516}"/>
-    <hyperlink ref="A165" r:id="rId193" display="https://www.espn.com/mlb/player/_/id/30361/craig-stammen" xr:uid="{5E75E972-B9C4-46D2-BB47-81C2BB9CEC69}"/>
-    <hyperlink ref="A6" r:id="rId194" display="https://www.espn.com/mlb/player/_/id/32150/trevor-story" xr:uid="{06911763-E286-47BF-9F68-494AC177CC4F}"/>
-    <hyperlink ref="A108" r:id="rId195" display="https://www.espn.com/mlb/player/_/id/32589/hunter-strickland" xr:uid="{B1B6BEEE-802C-4787-AFEE-F6FD2A5F2573}"/>
-    <hyperlink ref="A19" r:id="rId196" display="https://www.espn.com/mlb/player/_/id/32815/marcus-stroman" xr:uid="{F205B9BC-DEDB-490E-9B90-83FFFFFBF096}"/>
-    <hyperlink ref="A75" r:id="rId197" display="https://www.espn.com/mlb/player/_/id/28802/kurt-suzuki" xr:uid="{BBEE339A-1D90-4C07-BA0B-911EBCD4C321}"/>
-    <hyperlink ref="A27" r:id="rId198" display="https://www.espn.com/mlb/player/_/id/31730/noah-syndergaard" xr:uid="{717790CD-E988-46F1-8394-CA15D9FB7F0E}"/>
-    <hyperlink ref="A23" r:id="rId199" display="https://www.espn.com/mlb/player/_/id/32900/chris-taylor" xr:uid="{2EE80FAF-445D-4E77-B9DD-5CC765350A8E}"/>
-    <hyperlink ref="A206" r:id="rId200" display="https://www.espn.com/mlb/player/_/id/31091/julio-teheran" xr:uid="{1323EF40-0332-4C48-A2E2-7AF06D223970}"/>
-    <hyperlink ref="A31" r:id="rId201" display="https://www.espn.com/mlb/player/_/id/32107/ryan-tepera" xr:uid="{F19CD32B-0D4A-4BC8-A212-FA184D6DD1E3}"/>
-    <hyperlink ref="A102" r:id="rId202" display="https://www.espn.com/mlb/player/_/id/30944/josh-tomlin" xr:uid="{DBC797C3-4B8D-4430-B4AD-0DA342F7F2CF}"/>
-    <hyperlink ref="A207" r:id="rId203" display="https://www.espn.com/mlb/player/_/id/33107/jose-urena" xr:uid="{FACBB46B-68FD-4A71-9DEE-FA1A4724A067}"/>
-    <hyperlink ref="A193" r:id="rId204" display="https://www.espn.com/mlb/player/_/id/31389/christian-vazquez" xr:uid="{02B33DDF-1628-42D2-B51E-725FBF141800}"/>
-    <hyperlink ref="A166" r:id="rId205" display="https://www.espn.com/mlb/player/_/id/31878/vince-velasquez" xr:uid="{D800CD78-1846-421A-8584-6DA2F774D529}"/>
-    <hyperlink ref="A35" r:id="rId206" display="https://www.espn.com/mlb/player/_/id/6341/justin-verlander" xr:uid="{91F63F09-6E7A-4635-A590-473F153E8D3C}"/>
-    <hyperlink ref="A151" r:id="rId207" display="https://www.espn.com/mlb/player/_/id/31973/jonathan-villar" xr:uid="{92830315-264D-433A-9019-D5A1A6627062}"/>
-    <hyperlink ref="A103" r:id="rId208" display="https://www.espn.com/mlb/player/_/id/31032/stephen-vogt" xr:uid="{9A53013A-DF2F-427C-A571-84498339CD41}"/>
-    <hyperlink ref="A61" r:id="rId209" display="https://www.espn.com/mlb/player/_/id/32640/michael-wacha" xr:uid="{8A6BF919-3176-4446-B1C4-8F9DA0E6701C}"/>
-    <hyperlink ref="A135" r:id="rId210" display="https://www.espn.com/mlb/player/_/id/31513/tony-watson" xr:uid="{765C598C-665F-4CA4-8ABA-E31F738B7677}"/>
-    <hyperlink ref="A33" r:id="rId211" display="https://www.espn.com/mlb/player/_/id/32620/alex-wood" xr:uid="{186BB3B5-9E32-4441-8573-F2C579C393EB}"/>
-    <hyperlink ref="A67" r:id="rId212" display="https://www.espn.com/mlb/player/_/id/32623/kirby-yates" xr:uid="{AAD97DD5-719B-41D3-9F34-8598F595BDFF}"/>
-    <hyperlink ref="A155" r:id="rId213" display="https://www.espn.com/mlb/player/_/id/6389/ryan-zimmerman" xr:uid="{D7B8E08F-0CC3-49CD-A615-CBAD4C71C413}"/>
-    <hyperlink ref="A184" r:id="rId214" display="https://www.espn.com/mlb/player/_/id/32657/mike-zunino" xr:uid="{4B99D826-6FF9-4B16-8523-CAA26BC77736}"/>
+    <hyperlink ref="A71" r:id="rId117" display="https://www.espn.com/mlb/player/_/id/33372/nick-martinez" xr:uid="{C392A170-6B38-4DA8-99C1-C5A6917231C9}"/>
+    <hyperlink ref="A29" r:id="rId118" display="https://www.espn.com/mlb/player/_/id/33106/steven-matz" xr:uid="{90A8EB60-21B1-46E9-A137-CCEC4A671954}"/>
+    <hyperlink ref="A149" r:id="rId119" display="https://www.espn.com/mlb/player/_/id/6455/cameron-maybin" xr:uid="{0A05636E-C29D-49F4-A8F8-91C5F677C35A}"/>
+    <hyperlink ref="A172" r:id="rId120" display="https://www.espn.com/mlb/player/_/id/28701/andrew-mccutchen" xr:uid="{9FBD98AF-43B7-489C-B335-64B7E42C4698}"/>
+    <hyperlink ref="A53" r:id="rId121" display="https://www.espn.com/mlb/player/_/id/32680/t.j.-mcfarland" xr:uid="{8DB76626-C61A-448D-B278-D87F9F9ADA90}"/>
+    <hyperlink ref="A48" r:id="rId122" display="https://www.espn.com/mlb/player/_/id/32569/collin-mchugh" xr:uid="{483EB294-6801-4733-9C6F-8A1E3A08B331}"/>
+    <hyperlink ref="A69" r:id="rId123" display="https://www.espn.com/mlb/player/_/id/29446/mark-melancon" xr:uid="{2998240E-D4E5-41D3-809F-6A795B383188}"/>
+    <hyperlink ref="A153" r:id="rId124" display="https://www.espn.com/mlb/player/_/id/30687/jordy-mercer" xr:uid="{A3454F23-8A89-499A-82D2-B2C6E5CEA387}"/>
+    <hyperlink ref="A116" r:id="rId125" display="https://www.espn.com/mlb/player/_/id/28563/andrew-miller" xr:uid="{D5DCB720-C02D-4A2C-B040-683D75590B23}"/>
+    <hyperlink ref="A173" r:id="rId126" display="https://www.espn.com/mlb/player/_/id/32206/brad-miller" xr:uid="{1EAE67EF-0D07-4E1E-9FCA-7EDB2169AE30}"/>
+    <hyperlink ref="A174" r:id="rId127" display="https://www.espn.com/mlb/player/_/id/31099/matt-moore" xr:uid="{20398466-1A6B-4A19-B73C-A38F1E232A1F}"/>
+    <hyperlink ref="A84" r:id="rId128" display="https://www.espn.com/mlb/player/_/id/30452/mitch-moreland" xr:uid="{382FEA77-38C7-4C8C-BDD3-15FFA0B33E36}"/>
+    <hyperlink ref="A121" r:id="rId129" display="https://www.espn.com/mlb/player/_/id/32636/adam-morgan" xr:uid="{EC6564E3-506E-4EE0-9079-A72B3D8D39BE}"/>
+    <hyperlink ref="A129" r:id="rId130" display="https://www.espn.com/mlb/player/_/id/32738/jimmy-nelson" xr:uid="{F4903422-71EE-4514-AA3A-0EB04ABB744B}"/>
+    <hyperlink ref="A70" r:id="rId131" display="https://www.espn.com/mlb/player/_/id/32377/hector-neris" xr:uid="{7C28D075-3787-45DC-B158-6E2F0482012A}"/>
+    <hyperlink ref="A107" r:id="rId132" display="https://www.espn.com/mlb/player/_/id/33199/daniel-norris" xr:uid="{53AF1058-E8CE-4340-8BFF-915E5877C028}"/>
+    <hyperlink ref="A214" r:id="rId133" display="https://www.espn.com/mlb/player/_/id/29081/darren-o'day" xr:uid="{AA5A3289-74BE-4852-ABF2-B6F119949A3B}"/>
+    <hyperlink ref="A65" r:id="rId134" display="https://www.espn.com/mlb/player/_/id/32170/rougned-odor" xr:uid="{31A8C79F-AB05-4B4A-ACC5-B9A3C41E815B}"/>
+    <hyperlink ref="A186" r:id="rId135" display="https://www.espn.com/mlb/player/_/id/29705/adam-ottavino" xr:uid="{99DF64E6-33CF-4D0D-965E-7B5CE426EA33}"/>
+    <hyperlink ref="A196" r:id="rId136" display="https://www.espn.com/mlb/player/_/id/30862/chris-owings" xr:uid="{AFE0A9DC-C143-4A98-8380-33C5B9B7FB16}"/>
+    <hyperlink ref="A144" r:id="rId137" display="https://www.espn.com/mlb/player/_/id/32087/joe-panik" xr:uid="{3400C6B8-8E64-483A-B75B-25C062337F26}"/>
+    <hyperlink ref="A136" r:id="rId138" display="https://www.espn.com/mlb/player/_/id/30517/blake-parker" xr:uid="{011593CE-8F3C-4D23-9D4D-836A85FAFDA5}"/>
+    <hyperlink ref="A154" r:id="rId139" display="https://www.espn.com/mlb/player/_/id/29807/gerardo-parra" xr:uid="{27632671-B378-4115-BB46-3B09E2341E4C}"/>
+    <hyperlink ref="A58" r:id="rId140" display="https://www.espn.com/mlb/player/_/id/31980/james-paxton" xr:uid="{77A0A507-A560-4943-8E99-645A165A5531}"/>
+    <hyperlink ref="A98" r:id="rId141" display="https://www.espn.com/mlb/player/_/id/31392/joc-pederson" xr:uid="{34AD35F2-CD1A-4C3E-8959-963330D4249C}"/>
+    <hyperlink ref="A202" r:id="rId142" display="https://www.espn.com/mlb/player/_/id/31140/wily-peralta" xr:uid="{FCFAA955-CEA9-4553-9A56-5BBE89318296}"/>
+    <hyperlink ref="A187" r:id="rId143" display="https://www.espn.com/mlb/player/_/id/31098/martin-perez" xr:uid="{1B0BB3F9-FD22-4F13-9633-44066C10FE49}"/>
+    <hyperlink ref="A57" r:id="rId144" display="https://www.espn.com/mlb/player/_/id/32265/roberto-perez" xr:uid="{9A40D894-43DF-4AAE-83CF-0E467DDBF34F}"/>
+    <hyperlink ref="A85" r:id="rId145" display="https://www.espn.com/mlb/player/_/id/6470/yusmeiro-petit" xr:uid="{C70E5E28-E971-446C-86C6-F5C8436FC08F}"/>
+    <hyperlink ref="A45" r:id="rId146" display="https://www.espn.com/mlb/player/_/id/31208/tommy-pham" xr:uid="{493EF7BF-6963-402F-A4A5-6FB76D1D86F3}"/>
+    <hyperlink ref="A92" r:id="rId147" display="https://www.espn.com/mlb/player/_/id/31124/david-phelps" xr:uid="{4392168B-9624-4962-B706-38FEED8804F1}"/>
+    <hyperlink ref="A150" r:id="rId148" display="https://www.espn.com/mlb/player/_/id/32859/kevin-pillar" xr:uid="{8FC51A87-136C-436B-ACA7-EE2BB0D0CCF3}"/>
+    <hyperlink ref="A68" r:id="rId149" display="https://www.espn.com/mlb/player/_/id/30268/manny-pina" xr:uid="{E7D71A89-E465-47EB-BB4B-BB0D1E87DC65}"/>
+    <hyperlink ref="A207" r:id="rId150" display="https://www.espn.com/mlb/player/_/id/30937/michael-pineda" xr:uid="{EC6E988C-9CB9-4A77-AD57-EDAC713067EE}"/>
+    <hyperlink ref="A54" r:id="rId151" display="https://www.espn.com/mlb/player/_/id/35019/nick-plummer" xr:uid="{20AD024C-44A4-421A-A07C-71DEA2F474E3}"/>
+    <hyperlink ref="A93" r:id="rId152" display="https://www.espn.com/mlb/player/_/id/32950/gregory-polanco" xr:uid="{9E0CD57D-0D9B-42D6-B80D-2591D67C0B12}"/>
+    <hyperlink ref="A164" r:id="rId153" display="https://www.espn.com/mlb/player/_/id/31117/jurickson-profar" xr:uid="{BECAA05A-6AAC-4BF8-8210-958185FDCEA2}"/>
+    <hyperlink ref="A130" r:id="rId154" display="https://www.espn.com/mlb/player/_/id/4574/albert-pujols" xr:uid="{C084BBC5-71F2-455B-B84A-87FB60778687}"/>
+    <hyperlink ref="A133" r:id="rId155" display="https://www.espn.com/mlb/player/_/id/32106/jose-quintana" xr:uid="{A20CE7B9-DE40-4893-B6CF-886E19E09C98}"/>
+    <hyperlink ref="A79" r:id="rId156" display="https://www.espn.com/mlb/player/_/id/32005/brooks-raley" xr:uid="{4D0F5527-C725-4E2C-824B-6A83CE0B5A83}"/>
+    <hyperlink ref="A203" r:id="rId157" display="https://www.espn.com/mlb/player/_/id/31983/erasmo-ramirez" xr:uid="{0DEA9114-ACB7-4715-915C-6CBF11CEB995}"/>
+    <hyperlink ref="A137" r:id="rId158" display="https://www.espn.com/mlb/player/_/id/32801/jose-ramirez" xr:uid="{BE9445B0-CD22-4F9D-B66D-265FCC1BC505}"/>
+    <hyperlink ref="A138" r:id="rId159" display="https://www.espn.com/mlb/player/_/id/30173/wilson-ramos" xr:uid="{B5FD5F61-F9D4-49F3-9464-D1DB8B4C030F}"/>
+    <hyperlink ref="A11" r:id="rId160" display="https://www.espn.com/mlb/player/_/id/32175/robbie-ray" xr:uid="{23AF8D58-7A01-4937-8E78-EA244376E1BE}"/>
+    <hyperlink ref="A188" r:id="rId161" display="https://www.espn.com/mlb/player/_/id/30892/garrett-richards" xr:uid="{DE69ABA8-8A91-4D11-AB0F-0ACB08E380B0}"/>
+    <hyperlink ref="A32" r:id="rId162" display="https://www.espn.com/mlb/player/_/id/30782/anthony-rizzo" xr:uid="{1007367B-EA55-4C28-9F99-FE0B52CBE70D}"/>
+    <hyperlink ref="A99" r:id="rId163" display="https://www.espn.com/mlb/player/_/id/31593/tanner-roark" xr:uid="{542EC09B-C484-400C-BB25-2166EE687108}"/>
+    <hyperlink ref="A182" r:id="rId164" display="https://www.espn.com/mlb/player/_/id/29172/david-robertson" xr:uid="{D4346504-74BF-4CEF-93B3-D06069B61A67}"/>
+    <hyperlink ref="A189" r:id="rId165" display="https://www.espn.com/mlb/player/_/id/32666/hansel-robles" xr:uid="{9504C193-C156-4F95-B5F6-EB458FCB7E14}"/>
+    <hyperlink ref="A16" r:id="rId166" display="https://www.espn.com/mlb/player/_/id/33696/carlos-rodon" xr:uid="{20843204-F1EB-4F28-915D-93482E7179A2}"/>
+    <hyperlink ref="A18" r:id="rId167" display="https://www.espn.com/mlb/player/_/id/32675/eduardo-rodriguez" xr:uid="{38602414-FE61-4F06-9637-BFD4320A4C79}"/>
+    <hyperlink ref="A66" r:id="rId168" display="https://www.espn.com/mlb/player/_/id/33104/joely-rodriguez" xr:uid="{CD0B9349-03FD-4AAF-B36A-798DD6EC319F}"/>
+    <hyperlink ref="A183" r:id="rId169" display="https://www.espn.com/mlb/player/_/id/30412/chaz-roe" xr:uid="{947D78C5-A795-4691-BC1B-4EF96333C467}"/>
+    <hyperlink ref="A122" r:id="rId170" display="https://www.espn.com/mlb/player/_/id/29330/andrew-romine" xr:uid="{8B56DA7D-1D75-4E60-BE0B-260678D06E67}"/>
+    <hyperlink ref="A123" r:id="rId171" display="https://www.espn.com/mlb/player/_/id/29470/austin-romine" xr:uid="{70F5D396-33F6-4671-9420-55586DF059D5}"/>
+    <hyperlink ref="A86" r:id="rId172" display="https://www.espn.com/mlb/player/_/id/29168/sergio-romo" xr:uid="{70F82111-8740-4B2C-AF1C-FA68E732E767}"/>
+    <hyperlink ref="A44" r:id="rId173" display="https://www.espn.com/mlb/player/_/id/31944/eddie-rosario" xr:uid="{B4282758-61ED-4143-9816-11A447E0A630}"/>
+    <hyperlink ref="A87" r:id="rId174" display="https://www.espn.com/mlb/player/_/id/31945/trevor-rosenthal" xr:uid="{28ED31B1-3A5B-4251-828B-3942B718E98D}"/>
+    <hyperlink ref="A190" r:id="rId175" display="https://www.espn.com/mlb/player/_/id/31387/danny-santana" xr:uid="{1B56F64A-8C39-40E7-B6CA-32422DBE461A}"/>
+    <hyperlink ref="A200" r:id="rId176" display="https://www.espn.com/mlb/player/_/id/6280/ervin-santana" xr:uid="{52E716F9-9864-44EF-8056-B147BFD6768F}"/>
+    <hyperlink ref="A9" r:id="rId177" display="https://www.espn.com/mlb/player/_/id/28976/max-scherzer" xr:uid="{1E11484F-611D-45CC-A6B3-36E0CDD13663}"/>
+    <hyperlink ref="A22" r:id="rId178" display="https://www.espn.com/mlb/player/_/id/33712/kyle-schwarber" xr:uid="{A1C94381-F468-4798-9C1A-F6E559057626}"/>
+    <hyperlink ref="A4" r:id="rId179" display="https://www.espn.com/mlb/player/_/id/32691/corey-seager" xr:uid="{513DF30F-4DFF-4FDB-B4C6-4E2F135BDAC6}"/>
+    <hyperlink ref="A43" r:id="rId180" display="https://www.espn.com/mlb/player/_/id/30819/kyle-seager" xr:uid="{796104D8-0AC4-41F7-8CDF-7E6B67B841A6}"/>
+    <hyperlink ref="A7" r:id="rId181" display="https://www.espn.com/mlb/player/_/id/32146/marcus-semien" xr:uid="{D0CFDF0D-2DB4-4E8A-A925-1F410BCB85AC}"/>
+    <hyperlink ref="A60" r:id="rId182" display="https://www.espn.com/mlb/player/_/id/33299/pedro-severino" xr:uid="{8D07F44F-CA00-4E86-A328-8F22B82CF8F7}"/>
+    <hyperlink ref="A139" r:id="rId183" display="https://www.espn.com/mlb/player/_/id/30589/bryan-shaw" xr:uid="{453C1C4B-A953-4E43-82D4-D44742F47C5C}"/>
+    <hyperlink ref="A191" r:id="rId184" display="https://www.espn.com/mlb/player/_/id/32890/travis-shaw" xr:uid="{C7D45DF1-C9AF-4FD5-B628-CB911DF8283E}"/>
+    <hyperlink ref="A176" r:id="rId185" display="https://www.espn.com/mlb/player/_/id/33014/chasen-shreve" xr:uid="{59142467-68EF-4510-822F-E90DFCBF41B4}"/>
+    <hyperlink ref="A208" r:id="rId186" display="https://www.espn.com/mlb/player/_/id/31728/andrelton-simmons" xr:uid="{DDB660FE-E879-485D-BACB-3A3983BD0250}"/>
+    <hyperlink ref="A142" r:id="rId187" display="https://www.espn.com/mlb/player/_/id/28729/joe-smith" xr:uid="{20714CE3-99FE-434E-90A8-D6F19E1A0C12}"/>
+    <hyperlink ref="A100" r:id="rId188" display="https://www.espn.com/mlb/player/_/id/31816/drew-smyly" xr:uid="{77B677FF-5336-4B91-9A0C-50EABBA17329}"/>
+    <hyperlink ref="A134" r:id="rId189" display="https://www.espn.com/mlb/player/_/id/29703/donovan-solano" xr:uid="{8B6EE10A-FDFE-4C68-9766-09883710135C}"/>
+    <hyperlink ref="A101" r:id="rId190" display="https://www.espn.com/mlb/player/_/id/32558/jorge-soler" xr:uid="{67F90889-7DCC-40A4-AD9A-586BBF341A06}"/>
+    <hyperlink ref="A94" r:id="rId191" display="https://www.espn.com/mlb/player/_/id/28688/joakim-soria" xr:uid="{B14F8783-8B22-4020-9201-CB8C9874D516}"/>
+    <hyperlink ref="A165" r:id="rId192" display="https://www.espn.com/mlb/player/_/id/30361/craig-stammen" xr:uid="{5E75E972-B9C4-46D2-BB47-81C2BB9CEC69}"/>
+    <hyperlink ref="A6" r:id="rId193" display="https://www.espn.com/mlb/player/_/id/32150/trevor-story" xr:uid="{06911763-E286-47BF-9F68-494AC177CC4F}"/>
+    <hyperlink ref="A108" r:id="rId194" display="https://www.espn.com/mlb/player/_/id/32589/hunter-strickland" xr:uid="{B1B6BEEE-802C-4787-AFEE-F6FD2A5F2573}"/>
+    <hyperlink ref="A19" r:id="rId195" display="https://www.espn.com/mlb/player/_/id/32815/marcus-stroman" xr:uid="{F205B9BC-DEDB-490E-9B90-83FFFFFBF096}"/>
+    <hyperlink ref="A75" r:id="rId196" display="https://www.espn.com/mlb/player/_/id/28802/kurt-suzuki" xr:uid="{BBEE339A-1D90-4C07-BA0B-911EBCD4C321}"/>
+    <hyperlink ref="A27" r:id="rId197" display="https://www.espn.com/mlb/player/_/id/31730/noah-syndergaard" xr:uid="{717790CD-E988-46F1-8394-CA15D9FB7F0E}"/>
+    <hyperlink ref="A23" r:id="rId198" display="https://www.espn.com/mlb/player/_/id/32900/chris-taylor" xr:uid="{2EE80FAF-445D-4E77-B9DD-5CC765350A8E}"/>
+    <hyperlink ref="A204" r:id="rId199" display="https://www.espn.com/mlb/player/_/id/31091/julio-teheran" xr:uid="{1323EF40-0332-4C48-A2E2-7AF06D223970}"/>
+    <hyperlink ref="A31" r:id="rId200" display="https://www.espn.com/mlb/player/_/id/32107/ryan-tepera" xr:uid="{F19CD32B-0D4A-4BC8-A212-FA184D6DD1E3}"/>
+    <hyperlink ref="A102" r:id="rId201" display="https://www.espn.com/mlb/player/_/id/30944/josh-tomlin" xr:uid="{DBC797C3-4B8D-4430-B4AD-0DA342F7F2CF}"/>
+    <hyperlink ref="A205" r:id="rId202" display="https://www.espn.com/mlb/player/_/id/33107/jose-urena" xr:uid="{FACBB46B-68FD-4A71-9DEE-FA1A4724A067}"/>
+    <hyperlink ref="A166" r:id="rId203" display="https://www.espn.com/mlb/player/_/id/31878/vince-velasquez" xr:uid="{D800CD78-1846-421A-8584-6DA2F774D529}"/>
+    <hyperlink ref="A35" r:id="rId204" display="https://www.espn.com/mlb/player/_/id/6341/justin-verlander" xr:uid="{91F63F09-6E7A-4635-A590-473F153E8D3C}"/>
+    <hyperlink ref="A151" r:id="rId205" display="https://www.espn.com/mlb/player/_/id/31973/jonathan-villar" xr:uid="{92830315-264D-433A-9019-D5A1A6627062}"/>
+    <hyperlink ref="A103" r:id="rId206" display="https://www.espn.com/mlb/player/_/id/31032/stephen-vogt" xr:uid="{9A53013A-DF2F-427C-A571-84498339CD41}"/>
+    <hyperlink ref="A61" r:id="rId207" display="https://www.espn.com/mlb/player/_/id/32640/michael-wacha" xr:uid="{8A6BF919-3176-4446-B1C4-8F9DA0E6701C}"/>
+    <hyperlink ref="A135" r:id="rId208" display="https://www.espn.com/mlb/player/_/id/31513/tony-watson" xr:uid="{765C598C-665F-4CA4-8ABA-E31F738B7677}"/>
+    <hyperlink ref="A33" r:id="rId209" display="https://www.espn.com/mlb/player/_/id/32620/alex-wood" xr:uid="{186BB3B5-9E32-4441-8573-F2C579C393EB}"/>
+    <hyperlink ref="A67" r:id="rId210" display="https://www.espn.com/mlb/player/_/id/32623/kirby-yates" xr:uid="{AAD97DD5-719B-41D3-9F34-8598F595BDFF}"/>
+    <hyperlink ref="A155" r:id="rId211" display="https://www.espn.com/mlb/player/_/id/6389/ryan-zimmerman" xr:uid="{D7B8E08F-0CC3-49CD-A615-CBAD4C71C413}"/>
+    <hyperlink ref="A184" r:id="rId212" display="https://www.espn.com/mlb/player/_/id/32657/mike-zunino" xr:uid="{4B99D826-6FF9-4B16-8523-CAA26BC77736}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId215"/>
+  <pageSetup orientation="portrait" r:id="rId213"/>
 </worksheet>
 </file>